--- a/Last FM/Saty's Last FM.xlsx
+++ b/Last FM/Saty's Last FM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\The-Music-of-Primes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\The-Music-of-Primes\Last FM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A506833A-4D46-41F5-9D27-EE6BD13DA3C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D508BC53-EBDD-4AFA-868D-8A2ED6D141CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
   </bookViews>
@@ -661,28 +661,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -774,28 +774,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.5014170621026297</c:v>
+                  <c:v>4.8894100476049438</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2165824830380663</c:v>
+                  <c:v>9.31057408140585</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.720711386209336</c:v>
+                  <c:v>13.807104740242231</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.480829689875018</c:v>
+                  <c:v>15.94623738500751</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8631875740252966</c:v>
+                  <c:v>14.34339249777085</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.932174800846675</c:v>
+                  <c:v>10.047945217291623</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9780670779275942</c:v>
+                  <c:v>5.481674826356997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.57158526887492966</c:v>
+                  <c:v>2.3287599073872118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1410,6 +1410,39 @@
                 <c:pt idx="50">
                   <c:v>63.686274509803923</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>63.53846153846154</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>63.301886792452834</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>62.888888888888886</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>62.872727272727275</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62.339285714285715</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61.859649122807021</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>61.879310344827587</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>62.491525423728817</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>62.483333333333334</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>62.950819672131146</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62.258064516129032</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1799,6 +1832,39 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>34.473911816395955</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>34.157137748523333</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>33.876348350613142</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>33.695623777107841</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>33.388105963571981</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>33.324313724427718</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>33.225142982275855</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32.937808474617476</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>32.988633317880222</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>32.712633475293437</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>32.644848075699706</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>32.8294397208197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2138,10 +2204,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Scrobbles!$C$2:$C$64</c:f>
+              <c:f>Scrobbles!$C$2:$C$83</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>43539</c:v>
                 </c:pt>
@@ -2330,16 +2396,73 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>43601</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43602</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43603</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43604</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43605</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43606</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43607</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43608</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43609</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43610</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43611</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43612</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43613</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43614</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43615</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43616</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43618</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43619</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43620</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scrobbles!$G$2:$G$64</c:f>
+              <c:f>Scrobbles!$G$2:$G$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>79</c:v>
                 </c:pt>
@@ -2492,6 +2615,99 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>3248</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3304</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3355</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3396</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3458</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3491</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3526</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3589</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3687</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3749</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3860</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3881</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3896</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4023</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4163</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4304</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4444</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4577</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4678</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4860</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5025</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5078</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5150</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5273</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5375</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5481</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5543</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5588</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5634</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5734</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3178,424 +3394,424 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>2.1005831458846724E-3</c:v>
+                  <c:v>2.0145962456197854E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2152869171126535E-3</c:v>
+                  <c:v>2.1073659974047503E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3342891942819658E-3</c:v>
+                  <c:v>2.203000926536006E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4576153303785186E-3</c:v>
+                  <c:v>2.3015062284884639E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5852808314231973E-3</c:v>
+                  <c:v>2.4028817149477901E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7172907828609321E-3</c:v>
+                  <c:v>2.5071215736225182E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8536392908539137E-3</c:v>
+                  <c:v>2.6142141357345687E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9943089421435101E-3</c:v>
+                  <c:v>2.7241416524357155E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1392702862220265E-3</c:v>
+                  <c:v>2.8368800814112388E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2884813436101943E-3</c:v>
+                  <c:v>2.9523988849399097E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4418871440675572E-3</c:v>
+                  <c:v>3.0706608406809101E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5994192985694452E-3</c:v>
+                  <c:v>3.1916218664533613E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.7609956088645955E-3</c:v>
+                  <c:v>3.3152308602622358E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.9265197183807731E-3</c:v>
+                  <c:v>3.4414295568056794E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0958808081708086E-3</c:v>
+                  <c:v>3.5701524016727238E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.2689533414878586E-3</c:v>
+                  <c:v>3.7013264444070906E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.4455968604456466E-3</c:v>
+                  <c:v>3.8348712515720363E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.6256558380569114E-3</c:v>
+                  <c:v>3.9706988409030641E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.8089595887510061E-3</c:v>
+                  <c:v>4.1087136375796644E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.9953222402500594E-3</c:v>
+                  <c:v>4.2488124535842806E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.1845427694325076E-3</c:v>
+                  <c:v>4.3908844910463436E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.3764051045341208E-3</c:v>
+                  <c:v>4.5348113703917612E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.5706782957308121E-3</c:v>
+                  <c:v>4.6804671840338539E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.7671167558157616E-3</c:v>
+                  <c:v>4.8277185762505706E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.9654605723274204E-3</c:v>
+                  <c:v>4.9764248497953705E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.1654358921064793E-3</c:v>
+                  <c:v>5.1264380996855581E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.3667553788610875E-3</c:v>
+                  <c:v>5.2776033745027722E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.569118743902749E-3</c:v>
+                  <c:v>5.42975886542592E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.772213349783068E-3</c:v>
+                  <c:v>5.5827361230979282E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.9757148861165725E-3</c:v>
+                  <c:v>5.736360302304554E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.1792881164203385E-3</c:v>
+                  <c:v>5.890450434316857E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.382587694340091E-3</c:v>
+                  <c:v>6.044819726619504E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.5852590471683461E-3</c:v>
+                  <c:v>6.19927588961531E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.7869393240964395E-3</c:v>
+                  <c:v>6.353621489763232E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.9872584061823661E-3</c:v>
+                  <c:v>6.5076543284730759E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.1858399745641519E-3</c:v>
+                  <c:v>6.6611678459461282E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.3823026330074029E-3</c:v>
+                  <c:v>6.8139515490177813E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.5762610804495515E-3</c:v>
+                  <c:v>6.9657914619264665E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.7673273287958535E-3</c:v>
+                  <c:v>7.1164705988039853E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.9551119608367469E-3</c:v>
+                  <c:v>7.265769456556148E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.1392254227965434E-3</c:v>
+                  <c:v>7.4134665266805226E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.3192793456927363E-3</c:v>
+                  <c:v>7.5593388244506714E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.4948878893867106E-3</c:v>
+                  <c:v>7.7031624337844939E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.6656691029433795E-3</c:v>
+                  <c:v>7.8447130660087554E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.8312462946919688E-3</c:v>
+                  <c:v>7.9837666306335191E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.9912494051951576E-3</c:v>
+                  <c:v>8.1200998161595449E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.014531637619159E-2</c:v>
+                  <c:v>8.2534906788595264E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.0293094508478944E-2</c:v>
+                  <c:v>8.3837192374010185E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.0434241801652868E-2</c:v>
+                  <c:v>8.5105680711154447E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.0568428268612609E-2</c:v>
+                  <c:v>8.633822919664455E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.0695337217787369E-2</c:v>
+                  <c:v>8.7532732818123449E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.0814666496129227E-2</c:v>
+                  <c:v>8.8687130109819517E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.0926129686058375E-2</c:v>
+                  <c:v>8.9799409052514819E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.1029457249734458E-2</c:v>
+                  <c:v>9.0867612894415528E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.1124397614262748E-2</c:v>
+                  <c:v>9.1889845869456352E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.1210718191724662E-2</c:v>
+                  <c:v>9.286427878972818E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.1288206328247324E-2</c:v>
+                  <c:v>9.3789154489000819E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.1356670176693858E-2</c:v>
+                  <c:v>9.466279309471368E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.1415939487963139E-2</c:v>
+                  <c:v>9.5483597106330552E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.1465866316331558E-2</c:v>
+                  <c:v>9.6250056258596756E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.1506325634747228E-2</c:v>
+                  <c:v>9.6960752148994699E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.1537215856495175E-2</c:v>
+                  <c:v>9.7614362609565637E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.155845926018724E-2</c:v>
+                  <c:v>9.8209665804246081E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.1570002315588272E-2</c:v>
+                  <c:v>9.8745544033952345E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.1571815908366799E-2</c:v>
+                  <c:v>9.922098723283047E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.1563895462449517E-2</c:v>
+                  <c:v>9.9635096140366364E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.154626095925986E-2</c:v>
+                  <c:v>9.9987085135413347E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.1518956853727506E-2</c:v>
+                  <c:v>1.0027628471963659E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.1482051887562905E-2</c:v>
+                  <c:v>1.0050214363938657E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.1435638800894554E-2</c:v>
+                  <c:v>1.0066423063658844E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.1379833943962088E-2</c:v>
+                  <c:v>1.0076223582086369E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.1314776791140688E-2</c:v>
+                  <c:v>1.0079597165677346E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.1240629360137764E-2</c:v>
+                  <c:v>1.0076537356178103E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.1157575539746872E-2</c:v>
+                  <c:v>1.0067050011226503E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.1065820330062554E-2</c:v>
+                  <c:v>1.0051153285666364E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.0965588999549249E-2</c:v>
+                  <c:v>1.0028877573658347E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.0857126163814413E-2</c:v>
+                  <c:v>1.0000265411845755E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.0740694791356989E-2</c:v>
+                  <c:v>9.9653713440070301E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.0616575141944603E-2</c:v>
+                  <c:v>9.9242617477977267E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.0485063643613962E-2</c:v>
+                  <c:v>9.8770146243523128E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.0346471714586287E-2</c:v>
+                  <c:v>9.8237193516792602E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.0201124536642009E-2</c:v>
+                  <c:v>9.7644764029406368E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.004935978670443E-2</c:v>
+                  <c:v>9.6993970308590707E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.891526333540037E-3</c:v>
+                  <c:v>9.6286029196394965E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.7279829065929115E-3</c:v>
+                  <c:v>9.5522258059297285E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.559096744031912E-3</c:v>
+                  <c:v>9.4704070704721525E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.38524222710258E-3</c:v>
+                  <c:v>9.3832973022176039E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.2067995078413383E-3</c:v>
+                  <c:v>9.2910558367815324E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.0241531371287424E-3</c:v>
+                  <c:v>9.193850271221193E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8.837690699932569E-3</c:v>
+                  <c:v>9.0918559572001727E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8.6478014644223757E-3</c:v>
+                  <c:v>8.9852554746831098E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.454875051426447E-3</c:v>
+                  <c:v>8.8742380883680243E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8.2593001304527326E-3</c:v>
+                  <c:v>8.7589991891167604E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.0614631482096039E-3</c:v>
+                  <c:v>8.6397397226847025E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.8617470952432288E-3</c:v>
+                  <c:v>8.5166656080796713E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>7.6605303159591274E-3</c:v>
+                  <c:v>8.3899871478963824E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>7.4581853669192007E-3</c:v>
+                  <c:v>8.2599184329772771E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>7.255077927905927E-3</c:v>
+                  <c:v>8.1266767437428982E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.0515657698257267E-3</c:v>
+                  <c:v>7.9904819505156929E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.8479977830876492E-3</c:v>
+                  <c:v>7.851555915130275E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6.6447130696449695E-3</c:v>
+                  <c:v>7.7101218960812399E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>6.4420401014298684E-3</c:v>
+                  <c:v>7.5664039594069274E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>6.240295947448616E-3</c:v>
+                  <c:v>7.4206263974446714E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>6.0397855713402908E-3</c:v>
+                  <c:v>7.2730131575203787E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5.8408012007395184E-3</c:v>
+                  <c:v>7.1237872825536223E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>5.6436217693263523E-3</c:v>
+                  <c:v>6.9731703654691314E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.4485124319975618E-3</c:v>
+                  <c:v>6.8213820192075557E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.2557241531562991E-3</c:v>
+                  <c:v>6.6686393640232097E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5.0654933676941632E-3</c:v>
+                  <c:v>6.5151565336449791E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>4.8780417138339065E-3</c:v>
+                  <c:v>6.3611442017594598E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4.6935758366146857E-3</c:v>
+                  <c:v>6.2068091301534355E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4.5122872604372146E-3</c:v>
+                  <c:v>6.0523537397269029E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>4.3343523287451618E-3</c:v>
+                  <c:v>5.8979757054586131E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>4.1599322086035111E-3</c:v>
+                  <c:v>5.7438675762746189E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.9891729576456494E-3</c:v>
+                  <c:v>5.5902164206370446E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3.8222056505997988E-3</c:v>
+                  <c:v>5.437203498536442E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3.6591465623729354E-3</c:v>
+                  <c:v>5.2850039604369946E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3.5000974044671839E-3</c:v>
+                  <c:v>5.1337865735906424E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3.345145611329987E-3</c:v>
+                  <c:v>4.9837134760043365E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>3.1943646730953797E-3</c:v>
+                  <c:v>4.834939958215094E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>3.0478145110591453E-3</c:v>
+                  <c:v>4.6876142729006731E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.9055418921450902E-3</c:v>
+                  <c:v>4.5418774722304558E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.7675808785625547E-3</c:v>
+                  <c:v>4.3978632727419056E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2.6339533088256665E-3</c:v>
+                  <c:v>4.2556979474134005E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2.5046693063017706E-3</c:v>
+                  <c:v>4.1155002444947996E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2.3797278114786788E-3</c:v>
+                  <c:v>3.9773813325533463E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2.2591171341865648E-3</c:v>
+                  <c:v>3.8414447710945943E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2.1428155220789519E-3</c:v>
+                  <c:v>3.7077865060267433E-3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2.030791741766767E-3</c:v>
+                  <c:v>3.5764948891518909E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.9230056691080756E-3</c:v>
+                  <c:v>3.4476507207900102E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.8194088852822247E-3</c:v>
+                  <c:v>3.3213273145707026E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.7199452754187799E-3</c:v>
+                  <c:v>3.1975905833644689E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1.624551626707067E-3</c:v>
+                  <c:v>3.076499145269215E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1.5331582230793943E-3</c:v>
+                  <c:v>2.958104448519217E-3</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1.4456894337383478E-3</c:v>
+                  <c:v>2.8424509141426672E-3</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1.3620642929839898E-3</c:v>
+                  <c:v>2.7295760951602474E-3</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1.2821970689885836E-3</c:v>
+                  <c:v>2.6195108510908599E-3</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1.2059978193628598E-3</c:v>
+                  <c:v>2.5122795365114144E-3</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1.1333729315571007E-3</c:v>
+                  <c:v>2.4079002024054996E-3</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1.064225646340816E-3</c:v>
+                  <c:v>2.3063848090303521E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4283,424 +4499,424 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>2.1948376802694254E-28</c:v>
+                  <c:v>1.427247321126682E-31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3978103501009985E-26</c:v>
+                  <c:v>1.0136937071026581E-29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4510666834588592E-25</c:v>
+                  <c:v>3.599848872052361E-28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4490618221401385E-24</c:v>
+                  <c:v>8.5225690369239895E-27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5044388626623149E-22</c:v>
+                  <c:v>1.5132756728977258E-25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9162421278145862E-21</c:v>
+                  <c:v>2.1495896387698411E-24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0339720363208443E-20</c:v>
+                  <c:v>2.5445548894706452E-23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8505157350056146E-19</c:v>
+                  <c:v>2.5817922780970226E-22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.473155663553503E-18</c:v>
+                  <c:v>2.2921277786032324E-21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0424421776082251E-17</c:v>
+                  <c:v>1.8088553092933821E-20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6389258683755359E-17</c:v>
+                  <c:v>1.2847284538200833E-19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8437132300327352E-16</c:v>
+                  <c:v>8.29518682377842E-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0399314658735843E-15</c:v>
+                  <c:v>4.9096715509843232E-18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.9935104089855415E-15</c:v>
+                  <c:v>2.682357140049968E-17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5460674801659752E-14</c:v>
+                  <c:v>1.3608055734887561E-16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9301473432129534E-13</c:v>
+                  <c:v>6.443359073169597E-16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.682743346514321E-13</c:v>
+                  <c:v>2.8602228080899047E-15</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.8781488338498886E-12</c:v>
+                  <c:v>1.1949740053311064E-14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0183254261813101E-11</c:v>
+                  <c:v>4.715127782553071E-14</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.4133343490576698E-11</c:v>
+                  <c:v>1.7625740825153451E-13</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0869127417391541E-10</c:v>
+                  <c:v>6.2592874735178998E-13</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.2962582494572908E-10</c:v>
+                  <c:v>2.1169622674662308E-12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.5421094422792236E-10</c:v>
+                  <c:v>6.8343615552790146E-12</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.6421800058416819E-9</c:v>
+                  <c:v>2.1104624442176493E-11</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.0112750481812018E-9</c:v>
+                  <c:v>6.2455961763839216E-11</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.78608794952883E-8</c:v>
+                  <c:v>1.7743586405492758E-10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.3749725943209905E-8</c:v>
+                  <c:v>4.8470284815004568E-10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0319470578325745E-7</c:v>
+                  <c:v>1.2750268236792512E-9</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.3471737001682037E-7</c:v>
+                  <c:v>3.2342143820156607E-9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.1545775376243049E-7</c:v>
+                  <c:v>7.9209691172663021E-9</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0942528001440347E-6</c:v>
+                  <c:v>1.8752733389820663E-8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.2480285230030516E-6</c:v>
+                  <c:v>4.2964563045757498E-8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.4740175506825588E-6</c:v>
+                  <c:v>9.536037163814472E-8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.6343487846803017E-6</c:v>
+                  <c:v>2.0523976512215626E-7</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.6173220791604169E-5</c:v>
+                  <c:v>4.2873615210596645E-7</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.9428919401193406E-5</c:v>
+                  <c:v>8.7002067939552339E-7</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.2061617764202743E-5</c:v>
+                  <c:v>1.7164635626014677E-6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.9611094063662139E-5</c:v>
+                  <c:v>3.2948858894498867E-6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.5018412462269114E-4</c:v>
+                  <c:v>6.1583489795109259E-6</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.4524788173680199E-4</c:v>
+                  <c:v>1.1215204645613478E-5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.904730979809484E-4</c:v>
+                  <c:v>1.9913826785381908E-5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.0653114406605498E-4</c:v>
+                  <c:v>3.4496765972059546E-5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.1970735570800447E-4</c:v>
+                  <c:v>5.8335994489336872E-5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.3621566307978029E-3</c:v>
+                  <c:v>9.6355312508761973E-5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.9716063889622481E-3</c:v>
+                  <c:v>1.5553584812944354E-4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.7903170158385024E-3</c:v>
+                  <c:v>2.4548530609915312E-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.8631499008710368E-3</c:v>
+                  <c:v>3.7903139520717802E-4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.2346728736041431E-3</c:v>
+                  <c:v>5.727760367635179E-4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.9453502832787038E-3</c:v>
+                  <c:v>8.4752226578016694E-4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.0270098919924945E-3</c:v>
+                  <c:v>1.228464329493206E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.1497932599682978E-2</c:v>
+                  <c:v>1.7450185987727854E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.4358048859581082E-2</c:v>
+                  <c:v>2.4301741557275726E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.7584820021085724E-2</c:v>
+                  <c:v>3.3192622614815577E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.113040896355399E-2</c:v>
+                  <c:v>4.4480863807796955E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.4920685662172593E-2</c:v>
+                  <c:v>5.8504189434645396E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.8856465964611968E-2</c:v>
+                  <c:v>7.5549534205626209E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.2817157371519474E-2</c:v>
+                  <c:v>9.5818921431526111E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.6666710403403954E-2</c:v>
+                  <c:v>1.1939439418425497E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.0261485933149474E-2</c:v>
+                  <c:v>1.462054145771872E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.3459390598494331E-2</c:v>
+                  <c:v>1.7600254950341818E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.6129444661408364E-2</c:v>
+                  <c:v>2.0834122933087545E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.8160860257233803E-2</c:v>
+                  <c:v>2.4257883239164738E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.9470738176943509E-2</c:v>
+                  <c:v>2.7788731704346075E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.0009635106975571E-2</c:v>
+                  <c:v>3.1328217856390173E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.976448983684334E-2</c:v>
+                  <c:v>3.4766680791847623E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.8758691701377727E-2</c:v>
+                  <c:v>3.7988958523774957E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.7049385218679393E-2</c:v>
+                  <c:v>4.0880948714424499E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.4722388993348149E-2</c:v>
+                  <c:v>4.3336484403496259E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.1885328561244176E-2</c:v>
+                  <c:v>4.5263932059892778E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.865971786499605E-2</c:v>
+                  <c:v>4.659193006659873E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.5172762920310151E-2</c:v>
+                  <c:v>4.7273763189524559E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.1549608938184856E-2</c:v>
+                  <c:v>4.7290002888318632E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.7906625771030601E-2</c:v>
+                  <c:v>4.6649216941322444E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.4346151088989382E-2</c:v>
+                  <c:v>4.5386742309766435E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.0952914344737009E-2</c:v>
+                  <c:v>4.3561698617679598E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.7792174063191068E-2</c:v>
+                  <c:v>4.1252574430791236E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.4909437914665803E-2</c:v>
+                  <c:v>3.8551828222870337E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.2331513711951736E-2</c:v>
+                  <c:v>3.5560001198922532E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.0068566248471408E-2</c:v>
+                  <c:v>3.2379838490075828E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.1168287850670491E-3</c:v>
+                  <c:v>2.9110864366502263E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6.4616323269357226E-3</c:v>
+                  <c:v>2.5844767388797138E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.0804603722796387E-3</c:v>
+                  <c:v>2.2661837589935941E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.9457999256729687E-3</c:v>
+                  <c:v>1.9628575568677385E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.0276300870743533E-3</c:v>
+                  <c:v>1.6796477242429806E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.2954581052328483E-3</c:v>
+                  <c:v>1.4201899457013804E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.7198726472425082E-3</c:v>
+                  <c:v>1.1866838226348415E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.2736311806301188E-3</c:v>
+                  <c:v>9.8004063854584562E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.3233132176844858E-4</c:v>
+                  <c:v>8.0007803180417916E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6.7473532377538257E-4</c:v>
+                  <c:v>6.457392540503799E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.8282448372382502E-4</c:v>
+                  <c:v>5.153172671402328E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.4165880678322253E-4</c:v>
+                  <c:v>4.0666771867543588E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.3910963249987221E-4</c:v>
+                  <c:v>3.1739919506375428E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.6552175753614264E-4</c:v>
+                  <c:v>2.4503352492726777E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.1334907621281781E-4</c:v>
+                  <c:v>1.8713286771261525E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.6795535990661305E-5</c:v>
+                  <c:v>1.4139359387107862E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.148233248661885E-5</c:v>
+                  <c:v>1.0570940830618267E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.4153312074456402E-5</c:v>
+                  <c:v>7.8207773624899076E-4</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.2423682558688743E-5</c:v>
+                  <c:v>5.7264530247851759E-4</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.4572253091360912E-5</c:v>
+                  <c:v>4.1501819831195802E-4</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.3742677838661097E-6</c:v>
+                  <c:v>2.977415603558569E-4</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5.9701219141171323E-6</c:v>
+                  <c:v>2.1146912774542819E-4</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3.7645031988064978E-6</c:v>
+                  <c:v>1.4870758270820665E-4</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.3504625893355529E-6</c:v>
+                  <c:v>1.0354769986759879E-4</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.4533223853344437E-6</c:v>
+                  <c:v>7.140206062383308E-5</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>8.8996815753512382E-7</c:v>
+                  <c:v>4.8762382865056904E-5</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>5.3979767986443561E-7</c:v>
+                  <c:v>3.2983985807908462E-5</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3.2431795490190424E-7</c:v>
+                  <c:v>2.2100636602077668E-5</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.9303366639570821E-7</c:v>
+                  <c:v>1.4669946155744235E-5</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.1382958396028754E-7</c:v>
+                  <c:v>9.6474442650242024E-6</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>6.650809294891393E-8</c:v>
+                  <c:v>6.2862738195906863E-6</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3.850593331516471E-8</c:v>
+                  <c:v>4.0588978631148456E-6</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.2092787742034002E-8</c:v>
+                  <c:v>2.5971238359460315E-6</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.256256557880374E-8</c:v>
+                  <c:v>1.6469565788926058E-6</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>7.0802035398151045E-9</c:v>
+                  <c:v>1.0351689095047036E-6</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.9553665458065664E-9</c:v>
+                  <c:v>6.449319350615493E-7</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.1904570402011405E-9</c:v>
+                  <c:v>3.9831215162231875E-7</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.2026038652084724E-9</c:v>
+                  <c:v>2.4387825599751969E-7</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>6.546099135574206E-10</c:v>
+                  <c:v>1.4804533697410295E-7</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3.5330225975980463E-10</c:v>
+                  <c:v>8.9108727008802866E-8</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.8907987142854784E-10</c:v>
+                  <c:v>5.3183974800088078E-8</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.0034827163397414E-10</c:v>
+                  <c:v>3.1477994841028553E-8</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>5.2816591519550664E-11</c:v>
+                  <c:v>1.8476904046981175E-8</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.7571245460543178E-11</c:v>
+                  <c:v>1.0756646258458419E-8</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.4275690300628979E-11</c:v>
+                  <c:v>6.2112539965557871E-9</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>7.3319800911515533E-12</c:v>
+                  <c:v>3.5576655464143999E-9</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.735571974283981E-12</c:v>
+                  <c:v>2.0214482090065652E-9</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.8881322397252076E-12</c:v>
+                  <c:v>1.13946132106603E-9</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>9.4683549708623434E-13</c:v>
+                  <c:v>6.3724051602541133E-10</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>4.7109707330516772E-13</c:v>
+                  <c:v>3.5359077413604661E-10</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2.3257688008742014E-13</c:v>
+                  <c:v>1.9467883045645023E-10</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.1393811561447128E-13</c:v>
+                  <c:v>1.0636111712742555E-10</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>5.5391558077504241E-14</c:v>
+                  <c:v>5.7665904501037095E-11</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.6724863433710046E-14</c:v>
+                  <c:v>3.1027922007948518E-11</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1.2797045029144581E-14</c:v>
+                  <c:v>1.6569467978570701E-11</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>6.0820606167196986E-15</c:v>
+                  <c:v>8.7823608943572714E-12</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2.8692132001605858E-15</c:v>
+                  <c:v>4.6204579809157085E-12</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1.343599260974849E-15</c:v>
+                  <c:v>2.4129794907507731E-12</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>6.2459000996797388E-16</c:v>
+                  <c:v>1.2509518029314993E-12</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.882450060210282E-16</c:v>
+                  <c:v>6.4382673208494091E-13</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1.3206655093191043E-16</c:v>
+                  <c:v>3.2897410841047586E-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5075,25 +5291,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>56.375</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.75</c:v>
+                  <c:v>32.166666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.125</c:v>
+                  <c:v>45.583333333333336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51</c:v>
+                  <c:v>34.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.625</c:v>
+                  <c:v>49.230769230769234</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88</c:v>
+                  <c:v>63.916666666666664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.5</c:v>
+                  <c:v>47.166666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9102,10 +9318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF077D24-1D39-4E07-9755-929C3645CE83}">
-  <dimension ref="A1:AA64"/>
+  <dimension ref="A1:AA144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9249,15 +9465,15 @@
       </c>
       <c r="J4" s="26">
         <f>SUM(Calc!K2:K406)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K4" s="26">
         <f>SUM('Dist Calc'!B2:B21)*J13</f>
-        <v>3.5014170621026297</v>
+        <v>4.8894100476049438</v>
       </c>
       <c r="L4" s="27">
         <f>SUM('Dist Calc'!C2:C21)*J13</f>
-        <v>2.4589136245133135E-9</v>
+        <v>1.9122542184338138E-11</v>
       </c>
       <c r="O4" s="33" t="s">
         <v>20</v>
@@ -9294,22 +9510,22 @@
       </c>
       <c r="J5" s="26">
         <f>SUM(Calc!L2:L406)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K5" s="26">
         <f>SUM('Dist Calc'!B22:B41)*J13</f>
-        <v>7.2165824830380663</v>
+        <v>9.31057408140585</v>
       </c>
       <c r="L5" s="27">
         <f>SUM('Dist Calc'!C22:C41)*J13</f>
-        <v>3.0604260155294962E-2</v>
+        <v>1.9247330262997654E-3</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P5" s="30">
         <f ca="1">TODAY()</f>
-        <v>43594</v>
+        <v>43624</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -9342,22 +9558,22 @@
       </c>
       <c r="J6" s="26">
         <f>SUM(Calc!M2:M406)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K6" s="26">
         <f>SUM('Dist Calc'!B42:B61)*J13</f>
-        <v>10.720711386209336</v>
+        <v>13.807104740242231</v>
       </c>
       <c r="L6" s="27">
         <f>SUM('Dist Calc'!C42:C61)*J13</f>
-        <v>15.537868128978131</v>
+        <v>6.6182367049324498</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="P6" s="5">
         <f ca="1">P5-C2</f>
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -9390,15 +9606,15 @@
       </c>
       <c r="J7" s="26">
         <f>SUM(Calc!N2:N406)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K7" s="26">
         <f>SUM('Dist Calc'!B62:B81)*J13</f>
-        <v>11.480829689875018</v>
+        <v>15.94623738500751</v>
       </c>
       <c r="L7" s="27">
         <f>SUM('Dist Calc'!C62:C81)*J13</f>
-        <v>34.055620472448105</v>
+        <v>60.804353675903769</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="5"/>
@@ -9433,22 +9649,22 @@
       </c>
       <c r="J8" s="26">
         <f>SUM(Calc!O2:O406)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K8" s="26">
         <f>SUM('Dist Calc'!B82:B101)*J13</f>
-        <v>8.8631875740252966</v>
+        <v>14.34339249777085</v>
       </c>
       <c r="L8" s="27">
         <f>SUM('Dist Calc'!C82:C101)*J13</f>
-        <v>1.3751036379990298</v>
+        <v>12.521039461725405</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="6">
         <f>_xlfn.STDEV.P(D:D)</f>
-        <v>34.473911816395955</v>
+        <v>39.579181399290633</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -9481,22 +9697,22 @@
       </c>
       <c r="J9" s="26">
         <f>SUM(Calc!P2:P406)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26">
         <f>SUM('Dist Calc'!B102:B121)*J13</f>
-        <v>4.932174800846675</v>
+        <v>10.047945217291623</v>
       </c>
       <c r="L9" s="27">
         <f>SUM('Dist Calc'!C102:C121)*J13</f>
-        <v>8.0348725877646084E-4</v>
+        <v>5.4439419842351316E-2</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P9" s="6">
         <f>AVERAGE(D:D)</f>
-        <v>63.686274509803923</v>
+        <v>71.024390243902445</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -9529,22 +9745,22 @@
       </c>
       <c r="J10" s="26">
         <f>SUM(Calc!Q2:Q406)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K10" s="26">
         <f>SUM('Dist Calc'!B122:B141)*J13</f>
-        <v>1.9780670779275942</v>
+        <v>5.481674826356997</v>
       </c>
       <c r="L10" s="27">
         <f>SUM('Dist Calc'!C122:C141)*J13</f>
-        <v>1.0701747385383941E-8</v>
+        <v>6.0045238642202633E-6</v>
       </c>
       <c r="O10" s="31" t="s">
         <v>15</v>
       </c>
       <c r="P10" s="5">
         <f>SUM(D:D)</f>
-        <v>3248</v>
+        <v>5824</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9577,22 +9793,22 @@
       </c>
       <c r="J11" s="26">
         <f>SUM(Calc!R2:R406)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K11" s="26">
         <f>SUM('Dist Calc'!B142:B161)*J13</f>
-        <v>0.57158526887492966</v>
+        <v>2.3287599073872118</v>
       </c>
       <c r="L11" s="27">
         <f>SUM('Dist Calc'!C142:C161)*J13</f>
-        <v>5.5620688027514438E-15</v>
+        <v>2.6717022053328075E-11</v>
       </c>
       <c r="O11" s="20" t="s">
         <v>47</v>
       </c>
       <c r="P11" s="25">
         <f ca="1">SUM(Calc!T2:T406)/Scrobbles!P6</f>
-        <v>0.92727272727272725</v>
+        <v>0.96470588235294119</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -9654,16 +9870,16 @@
         <v>15</v>
       </c>
       <c r="J13" s="26">
-        <f>SUM(J4:J10)</f>
-        <v>51</v>
+        <f>SUM(J4:J11)</f>
+        <v>80</v>
       </c>
       <c r="K13" s="26">
-        <f>SUM(K4:K10)</f>
-        <v>48.692970074024608</v>
+        <f>SUM(K4:K11)</f>
+        <v>76.15509870306721</v>
       </c>
       <c r="L13" s="27">
-        <f>SUM(L4:L10)</f>
-        <v>51</v>
+        <f>SUM(L4:L11)</f>
+        <v>79.999999999999986</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9699,7 +9915,7 @@
       </c>
       <c r="K14" s="24">
         <f>_xlfn.CHISQ.TEST(J4:J10,K4:K10)</f>
-        <v>1.7565055731849556E-2</v>
+        <v>0.11737710962316623</v>
       </c>
       <c r="L14" s="25">
         <f>_xlfn.CHISQ.TEST(J4:J10,L4:L10)</f>
@@ -9739,7 +9955,7 @@
       </c>
       <c r="O15" s="29">
         <f>365*P9</f>
-        <v>23245.49019607843</v>
+        <v>25923.902439024394</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -9772,7 +9988,7 @@
       </c>
       <c r="O16" s="29">
         <f>AA20*365-AA21</f>
-        <v>22863.291734539969</v>
+        <v>23569.558915770613</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
@@ -9886,7 +10102,7 @@
       </c>
       <c r="AA20">
         <f>SLOPE(G2:G64,A2:A64)</f>
-        <v>62.319185520361991</v>
+        <v>64.159658218125969</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
@@ -9919,7 +10135,7 @@
       </c>
       <c r="AA21">
         <f>INTERCEPT(G2:G64,A2:A64)</f>
-        <v>-116.7890196078431</v>
+        <v>-151.28366615463415</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
@@ -10744,6 +10960,21 @@
       <c r="C53" s="1">
         <v>43590</v>
       </c>
+      <c r="D53">
+        <v>56</v>
+      </c>
+      <c r="E53" s="3">
+        <f>AVERAGE(D$2:D53)</f>
+        <v>63.53846153846154</v>
+      </c>
+      <c r="F53" s="3">
+        <f>_xlfn.STDEV.P($D$2:D53)</f>
+        <v>34.157137748523333</v>
+      </c>
+      <c r="G53">
+        <f>SUM($D$2:D53)</f>
+        <v>3304</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
@@ -10755,6 +10986,21 @@
       <c r="C54" s="1">
         <v>43591</v>
       </c>
+      <c r="D54">
+        <v>51</v>
+      </c>
+      <c r="E54" s="3">
+        <f>AVERAGE(D$2:D54)</f>
+        <v>63.301886792452834</v>
+      </c>
+      <c r="F54" s="3">
+        <f>_xlfn.STDEV.P($D$2:D54)</f>
+        <v>33.876348350613142</v>
+      </c>
+      <c r="G54">
+        <f>SUM($D$2:D54)</f>
+        <v>3355</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
@@ -10766,6 +11012,21 @@
       <c r="C55" s="1">
         <v>43592</v>
       </c>
+      <c r="D55">
+        <v>41</v>
+      </c>
+      <c r="E55" s="3">
+        <f>AVERAGE(D$2:D55)</f>
+        <v>62.888888888888886</v>
+      </c>
+      <c r="F55" s="3">
+        <f>_xlfn.STDEV.P($D$2:D55)</f>
+        <v>33.695623777107841</v>
+      </c>
+      <c r="G55">
+        <f>SUM($D$2:D55)</f>
+        <v>3396</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
@@ -10777,6 +11038,21 @@
       <c r="C56" s="1">
         <v>43593</v>
       </c>
+      <c r="D56">
+        <v>62</v>
+      </c>
+      <c r="E56" s="3">
+        <f>AVERAGE(D$2:D56)</f>
+        <v>62.872727272727275</v>
+      </c>
+      <c r="F56" s="3">
+        <f>_xlfn.STDEV.P($D$2:D56)</f>
+        <v>33.388105963571981</v>
+      </c>
+      <c r="G56">
+        <f>SUM($D$2:D56)</f>
+        <v>3458</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
@@ -10788,6 +11064,21 @@
       <c r="C57" s="1">
         <v>43594</v>
       </c>
+      <c r="D57">
+        <v>33</v>
+      </c>
+      <c r="E57" s="3">
+        <f>AVERAGE(D$2:D57)</f>
+        <v>62.339285714285715</v>
+      </c>
+      <c r="F57" s="3">
+        <f>_xlfn.STDEV.P($D$2:D57)</f>
+        <v>33.324313724427718</v>
+      </c>
+      <c r="G57">
+        <f>SUM($D$2:D57)</f>
+        <v>3491</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
@@ -10799,6 +11090,21 @@
       <c r="C58" s="1">
         <v>43595</v>
       </c>
+      <c r="D58">
+        <v>35</v>
+      </c>
+      <c r="E58" s="3">
+        <f>AVERAGE(D$2:D58)</f>
+        <v>61.859649122807021</v>
+      </c>
+      <c r="F58" s="3">
+        <f>_xlfn.STDEV.P($D$2:D58)</f>
+        <v>33.225142982275855</v>
+      </c>
+      <c r="G58">
+        <f>SUM($D$2:D58)</f>
+        <v>3526</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
@@ -10810,6 +11116,21 @@
       <c r="C59" s="1">
         <v>43596</v>
       </c>
+      <c r="D59">
+        <v>63</v>
+      </c>
+      <c r="E59" s="3">
+        <f>AVERAGE(D$2:D59)</f>
+        <v>61.879310344827587</v>
+      </c>
+      <c r="F59" s="3">
+        <f>_xlfn.STDEV.P($D$2:D59)</f>
+        <v>32.937808474617476</v>
+      </c>
+      <c r="G59">
+        <f>SUM($D$2:D59)</f>
+        <v>3589</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
@@ -10821,6 +11142,21 @@
       <c r="C60" s="1">
         <v>43597</v>
       </c>
+      <c r="D60">
+        <v>98</v>
+      </c>
+      <c r="E60" s="3">
+        <f>AVERAGE(D$2:D60)</f>
+        <v>62.491525423728817</v>
+      </c>
+      <c r="F60" s="3">
+        <f>_xlfn.STDEV.P($D$2:D60)</f>
+        <v>32.988633317880222</v>
+      </c>
+      <c r="G60">
+        <f>SUM($D$2:D60)</f>
+        <v>3687</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
@@ -10832,6 +11168,21 @@
       <c r="C61" s="1">
         <v>43598</v>
       </c>
+      <c r="D61">
+        <v>62</v>
+      </c>
+      <c r="E61" s="3">
+        <f>AVERAGE(D$2:D61)</f>
+        <v>62.483333333333334</v>
+      </c>
+      <c r="F61" s="3">
+        <f>_xlfn.STDEV.P($D$2:D61)</f>
+        <v>32.712633475293437</v>
+      </c>
+      <c r="G61">
+        <f>SUM($D$2:D61)</f>
+        <v>3749</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
@@ -10843,6 +11194,21 @@
       <c r="C62" s="1">
         <v>43599</v>
       </c>
+      <c r="D62">
+        <v>91</v>
+      </c>
+      <c r="E62" s="3">
+        <f>AVERAGE(D$2:D62)</f>
+        <v>62.950819672131146</v>
+      </c>
+      <c r="F62" s="3">
+        <f>_xlfn.STDEV.P($D$2:D62)</f>
+        <v>32.644848075699706</v>
+      </c>
+      <c r="G62">
+        <f>SUM($D$2:D62)</f>
+        <v>3840</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
@@ -10854,6 +11220,21 @@
       <c r="C63" s="1">
         <v>43600</v>
       </c>
+      <c r="D63">
+        <v>20</v>
+      </c>
+      <c r="E63" s="3">
+        <f>AVERAGE(D$2:D63)</f>
+        <v>62.258064516129032</v>
+      </c>
+      <c r="F63" s="3">
+        <f>_xlfn.STDEV.P($D$2:D63)</f>
+        <v>32.8294397208197</v>
+      </c>
+      <c r="G63">
+        <f>SUM($D$2:D63)</f>
+        <v>3860</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
@@ -10864,6 +11245,706 @@
       </c>
       <c r="C64" s="1">
         <v>43601</v>
+      </c>
+      <c r="D64">
+        <v>21</v>
+      </c>
+      <c r="E64" s="3">
+        <f>AVERAGE(D$2:D64)</f>
+        <v>61.603174603174601</v>
+      </c>
+      <c r="F64" s="3">
+        <f>_xlfn.STDEV.P($D$2:D64)</f>
+        <v>32.973553463603722</v>
+      </c>
+      <c r="G64">
+        <f>SUM($D$2:D64)</f>
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C65" s="1">
+        <v>43602</v>
+      </c>
+      <c r="D65">
+        <v>15</v>
+      </c>
+      <c r="E65" s="3">
+        <f>AVERAGE(D$2:D65)</f>
+        <v>60.875</v>
+      </c>
+      <c r="F65" s="3">
+        <f>_xlfn.STDEV.P($D$2:D65)</f>
+        <v>33.221557383722995</v>
+      </c>
+      <c r="G65">
+        <f>SUM($D$2:D65)</f>
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C66" s="1">
+        <v>43603</v>
+      </c>
+      <c r="D66">
+        <v>127</v>
+      </c>
+      <c r="E66" s="3">
+        <f>AVERAGE(D$2:D66)</f>
+        <v>61.892307692307689</v>
+      </c>
+      <c r="F66" s="3">
+        <f>_xlfn.STDEV.P($D$2:D66)</f>
+        <v>33.954776746509843</v>
+      </c>
+      <c r="G66">
+        <f>SUM($D$2:D66)</f>
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C67" s="1">
+        <v>43604</v>
+      </c>
+      <c r="D67">
+        <v>140</v>
+      </c>
+      <c r="E67" s="3">
+        <f>AVERAGE(D$2:D67)</f>
+        <v>63.075757575757578</v>
+      </c>
+      <c r="F67" s="3">
+        <f>_xlfn.STDEV.P($D$2:D67)</f>
+        <v>35.021340077011835</v>
+      </c>
+      <c r="G67">
+        <f>SUM($D$2:D67)</f>
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C68" s="1">
+        <v>43605</v>
+      </c>
+      <c r="D68">
+        <v>141</v>
+      </c>
+      <c r="E68" s="3">
+        <f>AVERAGE(D$2:D68)</f>
+        <v>64.238805970149258</v>
+      </c>
+      <c r="F68" s="3">
+        <f>_xlfn.STDEV.P($D$2:D68)</f>
+        <v>36.020346469298744</v>
+      </c>
+      <c r="G68">
+        <f>SUM($D$2:D68)</f>
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C69" s="1">
+        <v>43606</v>
+      </c>
+      <c r="D69">
+        <v>140</v>
+      </c>
+      <c r="E69" s="3">
+        <f>AVERAGE(D$2:D69)</f>
+        <v>65.352941176470594</v>
+      </c>
+      <c r="F69" s="3">
+        <f>_xlfn.STDEV.P($D$2:D69)</f>
+        <v>36.899212770927605</v>
+      </c>
+      <c r="G69">
+        <f>SUM($D$2:D69)</f>
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C70" s="1">
+        <v>43607</v>
+      </c>
+      <c r="D70">
+        <v>133</v>
+      </c>
+      <c r="E70" s="3">
+        <f>AVERAGE(D$2:D70)</f>
+        <v>66.333333333333329</v>
+      </c>
+      <c r="F70" s="3">
+        <f>_xlfn.STDEV.P($D$2:D70)</f>
+        <v>37.512381208893586</v>
+      </c>
+      <c r="G70">
+        <f>SUM($D$2:D70)</f>
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C71" s="1">
+        <v>43608</v>
+      </c>
+      <c r="D71">
+        <v>101</v>
+      </c>
+      <c r="E71" s="3">
+        <f>AVERAGE(D$2:D71)</f>
+        <v>66.828571428571422</v>
+      </c>
+      <c r="F71" s="3">
+        <f>_xlfn.STDEV.P($D$2:D71)</f>
+        <v>37.46997709731712</v>
+      </c>
+      <c r="G71">
+        <f>SUM($D$2:D71)</f>
+        <v>4678</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C72" s="1">
+        <v>43609</v>
+      </c>
+      <c r="D72">
+        <v>182</v>
+      </c>
+      <c r="E72" s="3">
+        <f>AVERAGE(D$2:D72)</f>
+        <v>68.450704225352112</v>
+      </c>
+      <c r="F72" s="3">
+        <f>_xlfn.STDEV.P($D$2:D72)</f>
+        <v>39.603239564600123</v>
+      </c>
+      <c r="G72">
+        <f>SUM($D$2:D72)</f>
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C73" s="1">
+        <v>43610</v>
+      </c>
+      <c r="D73">
+        <v>165</v>
+      </c>
+      <c r="E73" s="3">
+        <f>AVERAGE(D$2:D73)</f>
+        <v>69.791666666666671</v>
+      </c>
+      <c r="F73" s="3">
+        <f>_xlfn.STDEV.P($D$2:D73)</f>
+        <v>40.918257776259786</v>
+      </c>
+      <c r="G73">
+        <f>SUM($D$2:D73)</f>
+        <v>5025</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C74" s="1">
+        <v>43611</v>
+      </c>
+      <c r="D74">
+        <v>53</v>
+      </c>
+      <c r="E74" s="3">
+        <f>AVERAGE(D$2:D74)</f>
+        <v>69.561643835616437</v>
+      </c>
+      <c r="F74" s="3">
+        <f>_xlfn.STDEV.P($D$2:D74)</f>
+        <v>40.683875268794708</v>
+      </c>
+      <c r="G74">
+        <f>SUM($D$2:D74)</f>
+        <v>5078</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C75" s="1">
+        <v>43612</v>
+      </c>
+      <c r="D75">
+        <v>72</v>
+      </c>
+      <c r="E75" s="3">
+        <f>AVERAGE(D$2:D75)</f>
+        <v>69.594594594594597</v>
+      </c>
+      <c r="F75" s="3">
+        <f>_xlfn.STDEV.P($D$2:D75)</f>
+        <v>40.409029937766661</v>
+      </c>
+      <c r="G75">
+        <f>SUM($D$2:D75)</f>
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C76" s="1">
+        <v>43613</v>
+      </c>
+      <c r="D76">
+        <v>123</v>
+      </c>
+      <c r="E76" s="3">
+        <f>AVERAGE(D$2:D76)</f>
+        <v>70.306666666666672</v>
+      </c>
+      <c r="F76" s="3">
+        <f>_xlfn.STDEV.P($D$2:D76)</f>
+        <v>40.603439372655231</v>
+      </c>
+      <c r="G76">
+        <f>SUM($D$2:D76)</f>
+        <v>5273</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C77" s="1">
+        <v>43614</v>
+      </c>
+      <c r="D77">
+        <v>102</v>
+      </c>
+      <c r="E77" s="3">
+        <f>AVERAGE(D$2:D77)</f>
+        <v>70.723684210526315</v>
+      </c>
+      <c r="F77" s="3">
+        <f>_xlfn.STDEV.P($D$2:D77)</f>
+        <v>40.4967830704881</v>
+      </c>
+      <c r="G77">
+        <f>SUM($D$2:D77)</f>
+        <v>5375</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C78" s="1">
+        <v>43615</v>
+      </c>
+      <c r="D78">
+        <v>106</v>
+      </c>
+      <c r="E78" s="3">
+        <f>AVERAGE(D$2:D78)</f>
+        <v>71.181818181818187</v>
+      </c>
+      <c r="F78" s="3">
+        <f>_xlfn.STDEV.P($D$2:D78)</f>
+        <v>40.430709452396272</v>
+      </c>
+      <c r="G78">
+        <f>SUM($D$2:D78)</f>
+        <v>5481</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C79" s="1">
+        <v>43616</v>
+      </c>
+      <c r="D79">
+        <v>62</v>
+      </c>
+      <c r="E79" s="3">
+        <f>AVERAGE(D$2:D79)</f>
+        <v>71.064102564102569</v>
+      </c>
+      <c r="F79" s="3">
+        <f>_xlfn.STDEV.P($D$2:D79)</f>
+        <v>40.183980652962767</v>
+      </c>
+      <c r="G79">
+        <f>SUM($D$2:D79)</f>
+        <v>5543</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C80" s="1">
+        <v>43617</v>
+      </c>
+      <c r="D80">
+        <v>45</v>
+      </c>
+      <c r="E80" s="3">
+        <f>AVERAGE(D$2:D80)</f>
+        <v>70.734177215189874</v>
+      </c>
+      <c r="F80" s="3">
+        <f>_xlfn.STDEV.P($D$2:D80)</f>
+        <v>40.035019120372539</v>
+      </c>
+      <c r="G80">
+        <f>SUM($D$2:D80)</f>
+        <v>5588</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C81" s="1">
+        <v>43618</v>
+      </c>
+      <c r="D81">
+        <v>46</v>
+      </c>
+      <c r="E81" s="3">
+        <f>AVERAGE(D$2:D81)</f>
+        <v>70.424999999999997</v>
+      </c>
+      <c r="F81" s="3">
+        <f>_xlfn.STDEV.P($D$2:D81)</f>
+        <v>39.878808595543575</v>
+      </c>
+      <c r="G81">
+        <f>SUM($D$2:D81)</f>
+        <v>5634</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C82" s="1">
+        <v>43619</v>
+      </c>
+      <c r="D82">
+        <v>100</v>
+      </c>
+      <c r="E82" s="3">
+        <f>AVERAGE(D$2:D82)</f>
+        <v>70.790123456790127</v>
+      </c>
+      <c r="F82" s="3">
+        <f>_xlfn.STDEV.P($D$2:D82)</f>
+        <v>39.766204414867225</v>
+      </c>
+      <c r="G82">
+        <f>SUM($D$2:D82)</f>
+        <v>5734</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C83" s="1">
+        <v>43620</v>
+      </c>
+      <c r="D83">
+        <v>90</v>
+      </c>
+      <c r="E83" s="3">
+        <f>AVERAGE(D$2:D83)</f>
+        <v>71.024390243902445</v>
+      </c>
+      <c r="F83" s="3">
+        <f>_xlfn.STDEV.P($D$2:D83)</f>
+        <v>39.579181399290633</v>
+      </c>
+      <c r="G83">
+        <f>SUM($D$2:D83)</f>
+        <v>5824</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C84" s="1">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C85" s="1">
+        <v>43622</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C86" s="1">
+        <v>43623</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C87" s="1">
+        <v>43624</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C88" s="1">
+        <v>43625</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C89" s="1">
+        <v>43626</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C90" s="1">
+        <v>43627</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C91" s="1">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C92" s="1">
+        <v>43629</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C93" s="1">
+        <v>43630</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C94" s="1">
+        <v>43631</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C95" s="1">
+        <v>43632</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C96" s="1">
+        <v>43633</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C97" s="1">
+        <v>43634</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C98" s="1">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C99" s="1">
+        <v>43636</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C100" s="1">
+        <v>43637</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C101" s="1">
+        <v>43638</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C102" s="1">
+        <v>43639</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C103" s="1">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C104" s="1">
+        <v>43641</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C105" s="1">
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C106" s="1">
+        <v>43643</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C107" s="1">
+        <v>43644</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C108" s="1">
+        <v>43645</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C109" s="1">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C110" s="1">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C111" s="1">
+        <v>43648</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C112" s="1">
+        <v>43649</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C113" s="1">
+        <v>43650</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C114" s="1">
+        <v>43651</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C115" s="1">
+        <v>43652</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C116" s="1">
+        <v>43653</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C117" s="1">
+        <v>43654</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C118" s="1">
+        <v>43655</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C119" s="1">
+        <v>43656</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C120" s="1">
+        <v>43657</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C121" s="1">
+        <v>43658</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C122" s="1">
+        <v>43659</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C123" s="1">
+        <v>43660</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C124" s="1">
+        <v>43661</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C125" s="1">
+        <v>43662</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C126" s="1">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C127" s="1">
+        <v>43664</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C128" s="1">
+        <v>43665</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C129" s="1">
+        <v>43666</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C130" s="1">
+        <v>43667</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C131" s="1">
+        <v>43668</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C132" s="1">
+        <v>43669</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C133" s="1">
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C134" s="1">
+        <v>43671</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C135" s="1">
+        <v>43672</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C136" s="1">
+        <v>43673</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C137" s="1">
+        <v>43674</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C138" s="1">
+        <v>43675</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C139" s="1">
+        <v>43676</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C140" s="1">
+        <v>43677</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C141" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C142" s="1">
+        <v>43679</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C143" s="1">
+        <v>43680</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C144" s="1">
+        <v>43681</v>
       </c>
     </row>
   </sheetData>
@@ -10917,15 +11998,15 @@
     <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D2">
         <f ca="1">Scrobbles!P6</f>
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <f ca="1">ROUNDDOWN(D2/7,0)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <f ca="1">MOD(D2,7)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
@@ -10954,23 +12035,23 @@
       </c>
       <c r="D5" s="11">
         <f>SUM(Calc!C2:C1000)</f>
-        <v>451</v>
+        <v>564</v>
       </c>
       <c r="E5" s="11">
         <f ca="1">$E$2+IF($F$2&gt;3,1,0)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" ref="F5:F11" ca="1" si="0">D5/E5</f>
-        <v>56.375</v>
+        <v>47</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ref="G5:G11" ca="1" si="1">F5-F$13</f>
-        <v>-2.6795454545454547</v>
+        <v>1.3411764705882376</v>
       </c>
       <c r="H5" s="13">
         <f ca="1">F5/$F$13</f>
-        <v>0.95462592364532017</v>
+        <v>1.0293738727132182</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
@@ -10979,23 +12060,23 @@
       </c>
       <c r="D6" s="11">
         <f>SUM(Calc!D2:D1000)</f>
-        <v>254</v>
+        <v>386</v>
       </c>
       <c r="E6" s="11">
         <f ca="1">$E$2+IF($F$2&gt;4,1,0)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>31.75</v>
+        <v>32.166666666666664</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-27.304545454545455</v>
+        <v>-13.492156862745098</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" ref="H6:H11" ca="1" si="2">F6/$F$13</f>
-        <v>0.53763854679802958</v>
+        <v>0.70450055827535862</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
@@ -11004,23 +12085,23 @@
       </c>
       <c r="D7" s="11">
         <f>SUM(Calc!E2:E1000)</f>
-        <v>465</v>
+        <v>547</v>
       </c>
       <c r="E7" s="11">
         <f ca="1">$E$2+IF($F$2&gt;5,1,0)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>58.125</v>
+        <v>45.583333333333336</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.92954545454545467</v>
+        <v>-7.5490196078426663E-2</v>
       </c>
       <c r="H7" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98425954433497542</v>
+        <v>0.99834664605342271</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
@@ -11029,23 +12110,23 @@
       </c>
       <c r="D8" s="11">
         <f>SUM(Calc!F2:F1000)</f>
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="E8" s="11">
         <f ca="1">$E$2+IF($F$2&gt;6,1,0)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>34.25</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.0545454545454547</v>
+        <v>-11.408823529411762</v>
       </c>
       <c r="H8" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86360837438423643</v>
+        <v>0.75012883277505804</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
@@ -11054,23 +12135,23 @@
       </c>
       <c r="D9" s="11">
         <f>SUM(Calc!G2:G1000)</f>
-        <v>605</v>
+        <v>640</v>
       </c>
       <c r="E9" s="11">
         <f ca="1">$E$2+IF($F$2&gt;0,1,0)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>75.625</v>
+        <v>49.230769230769234</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>16.570454545454545</v>
+        <v>3.5719457013574711</v>
       </c>
       <c r="H9" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2805957512315271</v>
+        <v>1.0782312251005888</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
@@ -11079,23 +12160,23 @@
       </c>
       <c r="D10" s="11">
         <f>SUM(Calc!H2:H1000)</f>
-        <v>704</v>
+        <v>767</v>
       </c>
       <c r="E10" s="11">
         <f ca="1">$E$2+IF($F$2&gt;1,1,0)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>63.916666666666664</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>28.945454545454545</v>
+        <v>18.257843137254902</v>
       </c>
       <c r="H10" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4901477832512315</v>
+        <v>1.3998754616507774</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
@@ -11104,23 +12185,23 @@
       </c>
       <c r="D11" s="11">
         <f>SUM(Calc!I2:I1000)</f>
-        <v>412</v>
+        <v>566</v>
       </c>
       <c r="E11" s="11">
         <f ca="1">$E$2+IF($F$2&gt;2,1,0)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>51.5</v>
+        <v>47.166666666666664</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.5545454545454547</v>
+        <v>1.5078431372549019</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87207512315270941</v>
+        <v>1.0330241346731941</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
@@ -11137,15 +12218,15 @@
       </c>
       <c r="D13" s="11">
         <f>SUM(D5:D11)</f>
-        <v>3248</v>
+        <v>3881</v>
       </c>
       <c r="E13" s="11">
         <f ca="1">SUM(E5:E11)</f>
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="F13" s="12">
         <f ca="1">D13/E13</f>
-        <v>59.054545454545455</v>
+        <v>45.658823529411762</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="18"/>
@@ -11164,12 +12245,12 @@
       </c>
       <c r="D15" s="16">
         <f>_xlfn.STDEV.P(D5:D11)</f>
-        <v>139.33720659916051</v>
+        <v>120.55213115714966</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16">
         <f ca="1">_xlfn.STDEV.P(F5:F11)</f>
-        <v>16.851466962122622</v>
+        <v>9.7275203839265796</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="17"/>
@@ -11220,22 +12301,22 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" ref="D23:D29" si="3">D5</f>
-        <v>451</v>
+        <v>564</v>
       </c>
       <c r="E23" s="18">
         <f t="shared" ref="E23:E29" ca="1" si="4">$D$13/$E$13*E5</f>
-        <v>472.43636363636364</v>
+        <v>547.90588235294115</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="12">
         <f t="shared" ref="H23:H29" ca="1" si="5">F5</f>
-        <v>56.375</v>
+        <v>47</v>
       </c>
       <c r="I23" s="18">
         <f ca="1">E23/7</f>
-        <v>67.490909090909085</v>
+        <v>78.272268907563017</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.3">
@@ -11244,22 +12325,22 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="3"/>
-        <v>254</v>
+        <v>386</v>
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>472.43636363636364</v>
+        <v>547.90588235294115</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>31.75</v>
+        <v>32.166666666666664</v>
       </c>
       <c r="I24" s="18">
         <f t="shared" ref="I24:I29" ca="1" si="6">E24/7</f>
-        <v>67.490909090909085</v>
+        <v>78.272268907563017</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.3">
@@ -11268,22 +12349,22 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="3"/>
-        <v>465</v>
+        <v>547</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>472.43636363636364</v>
+        <v>547.90588235294115</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H25" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>58.125</v>
+        <v>45.583333333333336</v>
       </c>
       <c r="I25" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>67.490909090909085</v>
+        <v>78.272268907563017</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.3">
@@ -11292,22 +12373,22 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="3"/>
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>413.38181818181818</v>
+        <v>547.90588235294115</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>34.25</v>
       </c>
       <c r="I26" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>59.054545454545455</v>
+        <v>78.272268907563017</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.3">
@@ -11316,22 +12397,22 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="3"/>
-        <v>605</v>
+        <v>640</v>
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>472.43636363636364</v>
+        <v>593.56470588235288</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>75.625</v>
+        <v>49.230769230769234</v>
       </c>
       <c r="I27" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>67.490909090909085</v>
+        <v>84.794957983193271</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.3">
@@ -11340,22 +12421,22 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="3"/>
-        <v>704</v>
+        <v>767</v>
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>472.43636363636364</v>
+        <v>547.90588235294115</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>4</v>
       </c>
       <c r="H28" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>63.916666666666664</v>
       </c>
       <c r="I28" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>67.490909090909085</v>
+        <v>78.272268907563017</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.3">
@@ -11364,22 +12445,22 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="3"/>
-        <v>412</v>
+        <v>566</v>
       </c>
       <c r="E29" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>472.43636363636364</v>
+        <v>547.90588235294115</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H29" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>51.5</v>
+        <v>47.166666666666664</v>
       </c>
       <c r="I29" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>67.490909090909085</v>
+        <v>78.272268907563017</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.3">
@@ -11396,7 +12477,7 @@
       </c>
       <c r="D31" s="32">
         <f ca="1">_xlfn.CHISQ.TEST(D23:D29,E23:E29)</f>
-        <v>5.2528125486617328E-55</v>
+        <v>5.3276615570042563E-35</v>
       </c>
       <c r="E31" s="17"/>
       <c r="G31" s="15" t="s">
@@ -11404,7 +12485,7 @@
       </c>
       <c r="H31" s="32">
         <f ca="1">_xlfn.CHISQ.TEST(H23:H29,I23:I29)</f>
-        <v>6.2716930998903444E-6</v>
+        <v>5.4123052827738711E-21</v>
       </c>
       <c r="I31" s="17"/>
     </row>
@@ -11446,11 +12527,11 @@
       </c>
       <c r="B2">
         <f>_xlfn.NORM.DIST(A2,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>2.1005831458846724E-3</v>
+        <v>2.0145962456197854E-3</v>
       </c>
       <c r="C2">
         <f>_xlfn.POISSON.DIST(A2,Scrobbles!$P$9,FALSE)</f>
-        <v>2.1948376802694254E-28</v>
+        <v>1.427247321126682E-31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -11459,11 +12540,11 @@
       </c>
       <c r="B3">
         <f>_xlfn.NORM.DIST(A3,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>2.2152869171126535E-3</v>
+        <v>2.1073659974047503E-3</v>
       </c>
       <c r="C3">
         <f>_xlfn.POISSON.DIST(A3,Scrobbles!$P$9,FALSE)</f>
-        <v>1.3978103501009985E-26</v>
+        <v>1.0136937071026581E-29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -11472,11 +12553,11 @@
       </c>
       <c r="B4">
         <f>_xlfn.NORM.DIST(A4,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>2.3342891942819658E-3</v>
+        <v>2.203000926536006E-3</v>
       </c>
       <c r="C4">
         <f>_xlfn.POISSON.DIST(A4,Scrobbles!$P$9,FALSE)</f>
-        <v>4.4510666834588592E-25</v>
+        <v>3.599848872052361E-28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -11485,11 +12566,11 @@
       </c>
       <c r="B5">
         <f>_xlfn.NORM.DIST(A5,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>2.4576153303785186E-3</v>
+        <v>2.3015062284884639E-3</v>
       </c>
       <c r="C5">
         <f>_xlfn.POISSON.DIST(A5,Scrobbles!$P$9,FALSE)</f>
-        <v>9.4490618221401385E-24</v>
+        <v>8.5225690369239895E-27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -11498,11 +12579,11 @@
       </c>
       <c r="B6">
         <f>_xlfn.NORM.DIST(A6,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>2.5852808314231973E-3</v>
+        <v>2.4028817149477901E-3</v>
       </c>
       <c r="C6">
         <f>_xlfn.POISSON.DIST(A6,Scrobbles!$P$9,FALSE)</f>
-        <v>1.5044388626623149E-22</v>
+        <v>1.5132756728977258E-25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -11511,11 +12592,11 @@
       </c>
       <c r="B7">
         <f>_xlfn.NORM.DIST(A7,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>2.7172907828609321E-3</v>
+        <v>2.5071215736225182E-3</v>
       </c>
       <c r="C7">
         <f>_xlfn.POISSON.DIST(A7,Scrobbles!$P$9,FALSE)</f>
-        <v>1.9162421278145862E-21</v>
+        <v>2.1495896387698411E-24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -11524,11 +12605,11 @@
       </c>
       <c r="B8">
         <f>_xlfn.NORM.DIST(A8,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>2.8536392908539137E-3</v>
+        <v>2.6142141357345687E-3</v>
       </c>
       <c r="C8">
         <f>_xlfn.POISSON.DIST(A8,Scrobbles!$P$9,FALSE)</f>
-        <v>2.0339720363208443E-20</v>
+        <v>2.5445548894706452E-23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -11537,11 +12618,11 @@
       </c>
       <c r="B9">
         <f>_xlfn.NORM.DIST(A9,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>2.9943089421435101E-3</v>
+        <v>2.7241416524357155E-3</v>
       </c>
       <c r="C9">
         <f>_xlfn.POISSON.DIST(A9,Scrobbles!$P$9,FALSE)</f>
-        <v>1.8505157350056146E-19</v>
+        <v>2.5817922780970226E-22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -11550,11 +12631,11 @@
       </c>
       <c r="B10">
         <f>_xlfn.NORM.DIST(A10,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>3.1392702862220265E-3</v>
+        <v>2.8368800814112388E-3</v>
       </c>
       <c r="C10">
         <f>_xlfn.POISSON.DIST(A10,Scrobbles!$P$9,FALSE)</f>
-        <v>1.473155663553503E-18</v>
+        <v>2.2921277786032324E-21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -11563,11 +12644,11 @@
       </c>
       <c r="B11">
         <f>_xlfn.NORM.DIST(A11,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>3.2884813436101943E-3</v>
+        <v>2.9523988849399097E-3</v>
       </c>
       <c r="C11">
         <f>_xlfn.POISSON.DIST(A11,Scrobbles!$P$9,FALSE)</f>
-        <v>1.0424421776082251E-17</v>
+        <v>1.8088553092933821E-20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -11576,11 +12657,11 @@
       </c>
       <c r="B12">
         <f>_xlfn.NORM.DIST(A12,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>3.4418871440675572E-3</v>
+        <v>3.0706608406809101E-3</v>
       </c>
       <c r="C12">
         <f>_xlfn.POISSON.DIST(A12,Scrobbles!$P$9,FALSE)</f>
-        <v>6.6389258683755359E-17</v>
+        <v>1.2847284538200833E-19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -11589,11 +12670,11 @@
       </c>
       <c r="B13">
         <f>_xlfn.NORM.DIST(A13,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>3.5994192985694452E-3</v>
+        <v>3.1916218664533613E-3</v>
       </c>
       <c r="C13">
         <f>_xlfn.POISSON.DIST(A13,Scrobbles!$P$9,FALSE)</f>
-        <v>3.8437132300327352E-16</v>
+        <v>8.29518682377842E-19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -11602,11 +12683,11 @@
       </c>
       <c r="B14">
         <f>_xlfn.NORM.DIST(A14,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>3.7609956088645955E-3</v>
+        <v>3.3152308602622358E-3</v>
       </c>
       <c r="C14">
         <f>_xlfn.POISSON.DIST(A14,Scrobbles!$P$9,FALSE)</f>
-        <v>2.0399314658735843E-15</v>
+        <v>4.9096715509843232E-18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -11615,11 +12696,11 @@
       </c>
       <c r="B15">
         <f>_xlfn.NORM.DIST(A15,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>3.9265197183807731E-3</v>
+        <v>3.4414295568056794E-3</v>
       </c>
       <c r="C15">
         <f>_xlfn.POISSON.DIST(A15,Scrobbles!$P$9,FALSE)</f>
-        <v>9.9935104089855415E-15</v>
+        <v>2.682357140049968E-17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -11628,11 +12709,11 @@
       </c>
       <c r="B16">
         <f>_xlfn.NORM.DIST(A16,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>4.0958808081708086E-3</v>
+        <v>3.5701524016727238E-3</v>
       </c>
       <c r="C16">
         <f>_xlfn.POISSON.DIST(A16,Scrobbles!$P$9,FALSE)</f>
-        <v>4.5460674801659752E-14</v>
+        <v>1.3608055734887561E-16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -11641,11 +12722,11 @@
       </c>
       <c r="B17">
         <f>_xlfn.NORM.DIST(A17,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>4.2689533414878586E-3</v>
+        <v>3.7013264444070906E-3</v>
       </c>
       <c r="C17">
         <f>_xlfn.POISSON.DIST(A17,Scrobbles!$P$9,FALSE)</f>
-        <v>1.9301473432129534E-13</v>
+        <v>6.443359073169597E-16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -11654,11 +12735,11 @@
       </c>
       <c r="B18">
         <f>_xlfn.NORM.DIST(A18,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>4.4455968604456466E-3</v>
+        <v>3.8348712515720363E-3</v>
       </c>
       <c r="C18">
         <f>_xlfn.POISSON.DIST(A18,Scrobbles!$P$9,FALSE)</f>
-        <v>7.682743346514321E-13</v>
+        <v>2.8602228080899047E-15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -11667,11 +12748,11 @@
       </c>
       <c r="B19">
         <f>_xlfn.NORM.DIST(A19,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>4.6256558380569114E-3</v>
+        <v>3.9706988409030641E-3</v>
       </c>
       <c r="C19">
         <f>_xlfn.POISSON.DIST(A19,Scrobbles!$P$9,FALSE)</f>
-        <v>2.8781488338498886E-12</v>
+        <v>1.1949740053311064E-14</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -11680,11 +12761,11 @@
       </c>
       <c r="B20">
         <f>_xlfn.NORM.DIST(A20,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>4.8089595887510061E-3</v>
+        <v>4.1087136375796644E-3</v>
       </c>
       <c r="C20">
         <f>_xlfn.POISSON.DIST(A20,Scrobbles!$P$9,FALSE)</f>
-        <v>1.0183254261813101E-11</v>
+        <v>4.715127782553071E-14</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -11693,11 +12774,11 @@
       </c>
       <c r="B21">
         <f>_xlfn.NORM.DIST(A21,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>4.9953222402500594E-3</v>
+        <v>4.2488124535842806E-3</v>
       </c>
       <c r="C21">
         <f>_xlfn.POISSON.DIST(A21,Scrobbles!$P$9,FALSE)</f>
-        <v>3.4133343490576698E-11</v>
+        <v>1.7625740825153451E-13</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -11706,11 +12787,11 @@
       </c>
       <c r="B22">
         <f>_xlfn.NORM.DIST(A22,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>5.1845427694325076E-3</v>
+        <v>4.3908844910463436E-3</v>
       </c>
       <c r="C22">
         <f>_xlfn.POISSON.DIST(A22,Scrobbles!$P$9,FALSE)</f>
-        <v>1.0869127417391541E-10</v>
+        <v>6.2592874735178998E-13</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -11719,11 +12800,11 @@
       </c>
       <c r="B23">
         <f>_xlfn.NORM.DIST(A23,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>5.3764051045341208E-3</v>
+        <v>4.5348113703917612E-3</v>
       </c>
       <c r="C23">
         <f>_xlfn.POISSON.DIST(A23,Scrobbles!$P$9,FALSE)</f>
-        <v>3.2962582494572908E-10</v>
+        <v>2.1169622674662308E-12</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -11732,11 +12813,11 @@
       </c>
       <c r="B24">
         <f>_xlfn.NORM.DIST(A24,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>5.5706782957308121E-3</v>
+        <v>4.6804671840338539E-3</v>
       </c>
       <c r="C24">
         <f>_xlfn.POISSON.DIST(A24,Scrobbles!$P$9,FALSE)</f>
-        <v>9.5421094422792236E-10</v>
+        <v>6.8343615552790146E-12</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -11745,11 +12826,11 @@
       </c>
       <c r="B25">
         <f>_xlfn.NORM.DIST(A25,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>5.7671167558157616E-3</v>
+        <v>4.8277185762505706E-3</v>
       </c>
       <c r="C25">
         <f>_xlfn.POISSON.DIST(A25,Scrobbles!$P$9,FALSE)</f>
-        <v>2.6421800058416819E-9</v>
+        <v>2.1104624442176493E-11</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -11758,11 +12839,11 @@
       </c>
       <c r="B26">
         <f>_xlfn.NORM.DIST(A26,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>5.9654605723274204E-3</v>
+        <v>4.9764248497953705E-3</v>
       </c>
       <c r="C26">
         <f>_xlfn.POISSON.DIST(A26,Scrobbles!$P$9,FALSE)</f>
-        <v>7.0112750481812018E-9</v>
+        <v>6.2455961763839216E-11</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -11771,11 +12852,11 @@
       </c>
       <c r="B27">
         <f>_xlfn.NORM.DIST(A27,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>6.1654358921064793E-3</v>
+        <v>5.1264380996855581E-3</v>
       </c>
       <c r="C27">
         <f>_xlfn.POISSON.DIST(A27,Scrobbles!$P$9,FALSE)</f>
-        <v>1.78608794952883E-8</v>
+        <v>1.7743586405492758E-10</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -11784,11 +12865,11 @@
       </c>
       <c r="B28">
         <f>_xlfn.NORM.DIST(A28,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>6.3667553788610875E-3</v>
+        <v>5.2776033745027722E-3</v>
       </c>
       <c r="C28">
         <f>_xlfn.POISSON.DIST(A28,Scrobbles!$P$9,FALSE)</f>
-        <v>4.3749725943209905E-8</v>
+        <v>4.8470284815004568E-10</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -11797,11 +12878,11 @@
       </c>
       <c r="B29">
         <f>_xlfn.NORM.DIST(A29,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>6.569118743902749E-3</v>
+        <v>5.42975886542592E-3</v>
       </c>
       <c r="C29">
         <f>_xlfn.POISSON.DIST(A29,Scrobbles!$P$9,FALSE)</f>
-        <v>1.0319470578325745E-7</v>
+        <v>1.2750268236792512E-9</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -11810,11 +12891,11 @@
       </c>
       <c r="B30">
         <f>_xlfn.NORM.DIST(A30,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>6.772213349783068E-3</v>
+        <v>5.5827361230979282E-3</v>
       </c>
       <c r="C30">
         <f>_xlfn.POISSON.DIST(A30,Scrobbles!$P$9,FALSE)</f>
-        <v>2.3471737001682037E-7</v>
+        <v>3.2342143820156607E-9</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -11823,11 +12904,11 @@
       </c>
       <c r="B31">
         <f>_xlfn.NORM.DIST(A31,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>6.9757148861165725E-3</v>
+        <v>5.736360302304554E-3</v>
       </c>
       <c r="C31">
         <f>_xlfn.POISSON.DIST(A31,Scrobbles!$P$9,FALSE)</f>
-        <v>5.1545775376243049E-7</v>
+        <v>7.9209691172663021E-9</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -11836,11 +12917,11 @@
       </c>
       <c r="B32">
         <f>_xlfn.NORM.DIST(A32,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>7.1792881164203385E-3</v>
+        <v>5.890450434316857E-3</v>
       </c>
       <c r="C32">
         <f>_xlfn.POISSON.DIST(A32,Scrobbles!$P$9,FALSE)</f>
-        <v>1.0942528001440347E-6</v>
+        <v>1.8752733389820663E-8</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -11849,11 +12930,11 @@
       </c>
       <c r="B33">
         <f>_xlfn.NORM.DIST(A33,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>7.382587694340091E-3</v>
+        <v>6.044819726619504E-3</v>
       </c>
       <c r="C33">
         <f>_xlfn.POISSON.DIST(A33,Scrobbles!$P$9,FALSE)</f>
-        <v>2.2480285230030516E-6</v>
+        <v>4.2964563045757498E-8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -11862,11 +12943,11 @@
       </c>
       <c r="B34">
         <f>_xlfn.NORM.DIST(A34,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>7.5852590471683461E-3</v>
+        <v>6.19927588961531E-3</v>
       </c>
       <c r="C34">
         <f>_xlfn.POISSON.DIST(A34,Scrobbles!$P$9,FALSE)</f>
-        <v>4.4740175506825588E-6</v>
+        <v>9.536037163814472E-8</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -11875,11 +12956,11 @@
       </c>
       <c r="B35">
         <f>_xlfn.NORM.DIST(A35,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>7.7869393240964395E-3</v>
+        <v>6.353621489763232E-3</v>
       </c>
       <c r="C35">
         <f>_xlfn.POISSON.DIST(A35,Scrobbles!$P$9,FALSE)</f>
-        <v>8.6343487846803017E-6</v>
+        <v>2.0523976512215626E-7</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -11888,11 +12969,11 @@
       </c>
       <c r="B36">
         <f>_xlfn.NORM.DIST(A36,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>7.9872584061823661E-3</v>
+        <v>6.5076543284730759E-3</v>
       </c>
       <c r="C36">
         <f>_xlfn.POISSON.DIST(A36,Scrobbles!$P$9,FALSE)</f>
-        <v>1.6173220791604169E-5</v>
+        <v>4.2873615210596645E-7</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -11901,11 +12982,11 @@
       </c>
       <c r="B37">
         <f>_xlfn.NORM.DIST(A37,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>8.1858399745641519E-3</v>
+        <v>6.6611678459461282E-3</v>
       </c>
       <c r="C37">
         <f>_xlfn.POISSON.DIST(A37,Scrobbles!$P$9,FALSE)</f>
-        <v>2.9428919401193406E-5</v>
+        <v>8.7002067939552339E-7</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -11914,11 +12995,11 @@
       </c>
       <c r="B38">
         <f>_xlfn.NORM.DIST(A38,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>8.3823026330074029E-3</v>
+        <v>6.8139515490177813E-3</v>
       </c>
       <c r="C38">
         <f>_xlfn.POISSON.DIST(A38,Scrobbles!$P$9,FALSE)</f>
-        <v>5.2061617764202743E-5</v>
+        <v>1.7164635626014677E-6</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -11927,11 +13008,11 @@
       </c>
       <c r="B39">
         <f>_xlfn.NORM.DIST(A39,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>8.5762610804495515E-3</v>
+        <v>6.9657914619264665E-3</v>
       </c>
       <c r="C39">
         <f>_xlfn.POISSON.DIST(A39,Scrobbles!$P$9,FALSE)</f>
-        <v>8.9611094063662139E-5</v>
+        <v>3.2948858894498867E-6</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -11940,11 +13021,11 @@
       </c>
       <c r="B40">
         <f>_xlfn.NORM.DIST(A40,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>8.7673273287958535E-3</v>
+        <v>7.1164705988039853E-3</v>
       </c>
       <c r="C40">
         <f>_xlfn.POISSON.DIST(A40,Scrobbles!$P$9,FALSE)</f>
-        <v>1.5018412462269114E-4</v>
+        <v>6.1583489795109259E-6</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -11953,11 +13034,11 @@
       </c>
       <c r="B41">
         <f>_xlfn.NORM.DIST(A41,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>8.9551119608367469E-3</v>
+        <v>7.265769456556148E-3</v>
       </c>
       <c r="C41">
         <f>_xlfn.POISSON.DIST(A41,Scrobbles!$P$9,FALSE)</f>
-        <v>2.4524788173680199E-4</v>
+        <v>1.1215204645613478E-5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -11966,11 +13047,11 @@
       </c>
       <c r="B42">
         <f>_xlfn.NORM.DIST(A42,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>9.1392254227965434E-3</v>
+        <v>7.4134665266805226E-3</v>
       </c>
       <c r="C42">
         <f>_xlfn.POISSON.DIST(A42,Scrobbles!$P$9,FALSE)</f>
-        <v>3.904730979809484E-4</v>
+        <v>1.9913826785381908E-5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -11979,11 +13060,11 @@
       </c>
       <c r="B43">
         <f>_xlfn.NORM.DIST(A43,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>9.3192793456927363E-3</v>
+        <v>7.5593388244506714E-3</v>
       </c>
       <c r="C43">
         <f>_xlfn.POISSON.DIST(A43,Scrobbles!$P$9,FALSE)</f>
-        <v>6.0653114406605498E-4</v>
+        <v>3.4496765972059546E-5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -11992,11 +13073,11 @@
       </c>
       <c r="B44">
         <f>_xlfn.NORM.DIST(A44,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>9.4948878893867106E-3</v>
+        <v>7.7031624337844939E-3</v>
       </c>
       <c r="C44">
         <f>_xlfn.POISSON.DIST(A44,Scrobbles!$P$9,FALSE)</f>
-        <v>9.1970735570800447E-4</v>
+        <v>5.8335994489336872E-5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -12005,11 +13086,11 @@
       </c>
       <c r="B45">
         <f>_xlfn.NORM.DIST(A45,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>9.6656691029433795E-3</v>
+        <v>7.8447130660087554E-3</v>
       </c>
       <c r="C45">
         <f>_xlfn.POISSON.DIST(A45,Scrobbles!$P$9,FALSE)</f>
-        <v>1.3621566307978029E-3</v>
+        <v>9.6355312508761973E-5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -12018,11 +13099,11 @@
       </c>
       <c r="B46">
         <f>_xlfn.NORM.DIST(A46,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>9.8312462946919688E-3</v>
+        <v>7.9837666306335191E-3</v>
       </c>
       <c r="C46">
         <f>_xlfn.POISSON.DIST(A46,Scrobbles!$P$9,FALSE)</f>
-        <v>1.9716063889622481E-3</v>
+        <v>1.5553584812944354E-4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -12031,11 +13112,11 @@
       </c>
       <c r="B47">
         <f>_xlfn.NORM.DIST(A47,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>9.9912494051951576E-3</v>
+        <v>8.1200998161595449E-3</v>
       </c>
       <c r="C47">
         <f>_xlfn.POISSON.DIST(A47,Scrobbles!$P$9,FALSE)</f>
-        <v>2.7903170158385024E-3</v>
+        <v>2.4548530609915312E-4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -12044,11 +13125,11 @@
       </c>
       <c r="B48">
         <f>_xlfn.NORM.DIST(A48,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.014531637619159E-2</v>
+        <v>8.2534906788595264E-3</v>
       </c>
       <c r="C48">
         <f>_xlfn.POISSON.DIST(A48,Scrobbles!$P$9,FALSE)</f>
-        <v>3.8631499008710368E-3</v>
+        <v>3.7903139520717802E-4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -12057,11 +13138,11 @@
       </c>
       <c r="B49">
         <f>_xlfn.NORM.DIST(A49,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.0293094508478944E-2</v>
+        <v>8.3837192374010185E-3</v>
       </c>
       <c r="C49">
         <f>_xlfn.POISSON.DIST(A49,Scrobbles!$P$9,FALSE)</f>
-        <v>5.2346728736041431E-3</v>
+        <v>5.727760367635179E-4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -12070,11 +13151,11 @@
       </c>
       <c r="B50">
         <f>_xlfn.NORM.DIST(A50,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.0434241801652868E-2</v>
+        <v>8.5105680711154447E-3</v>
       </c>
       <c r="C50">
         <f>_xlfn.POISSON.DIST(A50,Scrobbles!$P$9,FALSE)</f>
-        <v>6.9453502832787038E-3</v>
+        <v>8.4752226578016694E-4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -12083,11 +13164,11 @@
       </c>
       <c r="B51">
         <f>_xlfn.NORM.DIST(A51,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.0568428268612609E-2</v>
+        <v>8.633822919664455E-3</v>
       </c>
       <c r="C51">
         <f>_xlfn.POISSON.DIST(A51,Scrobbles!$P$9,FALSE)</f>
-        <v>9.0270098919924945E-3</v>
+        <v>1.228464329493206E-3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -12096,11 +13177,11 @@
       </c>
       <c r="B52">
         <f>_xlfn.NORM.DIST(A52,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.0695337217787369E-2</v>
+        <v>8.7532732818123449E-3</v>
       </c>
       <c r="C52">
         <f>_xlfn.POISSON.DIST(A52,Scrobbles!$P$9,FALSE)</f>
-        <v>1.1497932599682978E-2</v>
+        <v>1.7450185987727854E-3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -12109,11 +13190,11 @@
       </c>
       <c r="B53">
         <f>_xlfn.NORM.DIST(A53,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.0814666496129227E-2</v>
+        <v>8.8687130109819517E-3</v>
       </c>
       <c r="C53">
         <f>_xlfn.POISSON.DIST(A53,Scrobbles!$P$9,FALSE)</f>
-        <v>1.4358048859581082E-2</v>
+        <v>2.4301741557275726E-3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -12122,11 +13203,11 @@
       </c>
       <c r="B54">
         <f>_xlfn.NORM.DIST(A54,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.0926129686058375E-2</v>
+        <v>8.9799409052514819E-3</v>
       </c>
       <c r="C54">
         <f>_xlfn.POISSON.DIST(A54,Scrobbles!$P$9,FALSE)</f>
-        <v>1.7584820021085724E-2</v>
+        <v>3.3192622614815577E-3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -12135,11 +13216,11 @@
       </c>
       <c r="B55">
         <f>_xlfn.NORM.DIST(A55,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.1029457249734458E-2</v>
+        <v>9.0867612894415528E-3</v>
       </c>
       <c r="C55">
         <f>_xlfn.POISSON.DIST(A55,Scrobbles!$P$9,FALSE)</f>
-        <v>2.113040896355399E-2</v>
+        <v>4.4480863807796955E-3</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -12148,11 +13229,11 @@
       </c>
       <c r="B56">
         <f>_xlfn.NORM.DIST(A56,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.1124397614262748E-2</v>
+        <v>9.1889845869456352E-3</v>
       </c>
       <c r="C56">
         <f>_xlfn.POISSON.DIST(A56,Scrobbles!$P$9,FALSE)</f>
-        <v>2.4920685662172593E-2</v>
+        <v>5.8504189434645396E-3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -12161,11 +13242,11 @@
       </c>
       <c r="B57">
         <f>_xlfn.NORM.DIST(A57,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.1210718191724662E-2</v>
+        <v>9.286427878972818E-3</v>
       </c>
       <c r="C57">
         <f>_xlfn.POISSON.DIST(A57,Scrobbles!$P$9,FALSE)</f>
-        <v>2.8856465964611968E-2</v>
+        <v>7.5549534205626209E-3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -12174,11 +13255,11 @@
       </c>
       <c r="B58">
         <f>_xlfn.NORM.DIST(A58,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.1288206328247324E-2</v>
+        <v>9.3789154489000819E-3</v>
       </c>
       <c r="C58">
         <f>_xlfn.POISSON.DIST(A58,Scrobbles!$P$9,FALSE)</f>
-        <v>3.2817157371519474E-2</v>
+        <v>9.5818921431526111E-3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -12187,11 +13268,11 @@
       </c>
       <c r="B59">
         <f>_xlfn.NORM.DIST(A59,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.1356670176693858E-2</v>
+        <v>9.466279309471368E-3</v>
       </c>
       <c r="C59">
         <f>_xlfn.POISSON.DIST(A59,Scrobbles!$P$9,FALSE)</f>
-        <v>3.6666710403403954E-2</v>
+        <v>1.1939439418425497E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -12200,11 +13281,11 @@
       </c>
       <c r="B60">
         <f>_xlfn.NORM.DIST(A60,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.1415939487963139E-2</v>
+        <v>9.5483597106330552E-3</v>
       </c>
       <c r="C60">
         <f>_xlfn.POISSON.DIST(A60,Scrobbles!$P$9,FALSE)</f>
-        <v>4.0261485933149474E-2</v>
+        <v>1.462054145771872E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -12213,11 +13294,11 @@
       </c>
       <c r="B61">
         <f>_xlfn.NORM.DIST(A61,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.1465866316331558E-2</v>
+        <v>9.6250056258596756E-3</v>
       </c>
       <c r="C61">
         <f>_xlfn.POISSON.DIST(A61,Scrobbles!$P$9,FALSE)</f>
-        <v>4.3459390598494331E-2</v>
+        <v>1.7600254950341818E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -12226,11 +13307,11 @@
       </c>
       <c r="B62">
         <f>_xlfn.NORM.DIST(A62,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.1506325634747228E-2</v>
+        <v>9.6960752148994699E-3</v>
       </c>
       <c r="C62">
         <f>_xlfn.POISSON.DIST(A62,Scrobbles!$P$9,FALSE)</f>
-        <v>4.6129444661408364E-2</v>
+        <v>2.0834122933087545E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -12239,11 +13320,11 @@
       </c>
       <c r="B63">
         <f>_xlfn.NORM.DIST(A63,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.1537215856495175E-2</v>
+        <v>9.7614362609565637E-3</v>
       </c>
       <c r="C63">
         <f>_xlfn.POISSON.DIST(A63,Scrobbles!$P$9,FALSE)</f>
-        <v>4.8160860257233803E-2</v>
+        <v>2.4257883239164738E-2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -12252,11 +13333,11 @@
       </c>
       <c r="B64">
         <f>_xlfn.NORM.DIST(A64,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.155845926018724E-2</v>
+        <v>9.8209665804246081E-3</v>
       </c>
       <c r="C64">
         <f>_xlfn.POISSON.DIST(A64,Scrobbles!$P$9,FALSE)</f>
-        <v>4.9470738176943509E-2</v>
+        <v>2.7788731704346075E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -12265,11 +13346,11 @@
       </c>
       <c r="B65">
         <f>_xlfn.NORM.DIST(A65,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.1570002315588272E-2</v>
+        <v>9.8745544033952345E-3</v>
       </c>
       <c r="C65">
         <f>_xlfn.POISSON.DIST(A65,Scrobbles!$P$9,FALSE)</f>
-        <v>5.0009635106975571E-2</v>
+        <v>3.1328217856390173E-2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -12278,11 +13359,11 @@
       </c>
       <c r="B66">
         <f>_xlfn.NORM.DIST(A66,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.1571815908366799E-2</v>
+        <v>9.922098723283047E-3</v>
       </c>
       <c r="C66">
         <f>_xlfn.POISSON.DIST(A66,Scrobbles!$P$9,FALSE)</f>
-        <v>4.976448983684334E-2</v>
+        <v>3.4766680791847623E-2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -12291,11 +13372,11 @@
       </c>
       <c r="B67">
         <f>_xlfn.NORM.DIST(A67,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.1563895462449517E-2</v>
+        <v>9.9635096140366364E-3</v>
       </c>
       <c r="C67">
         <f>_xlfn.POISSON.DIST(A67,Scrobbles!$P$9,FALSE)</f>
-        <v>4.8758691701377727E-2</v>
+        <v>3.7988958523774957E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -12304,11 +13385,11 @@
       </c>
       <c r="B68">
         <f>_xlfn.NORM.DIST(A68,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.154626095925986E-2</v>
+        <v>9.9987085135413347E-3</v>
       </c>
       <c r="C68">
         <f>_xlfn.POISSON.DIST(A68,Scrobbles!$P$9,FALSE)</f>
-        <v>4.7049385218679393E-2</v>
+        <v>4.0880948714424499E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -12317,11 +13398,11 @@
       </c>
       <c r="B69">
         <f>_xlfn.NORM.DIST(A69,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.1518956853727506E-2</v>
+        <v>1.0027628471963659E-2</v>
       </c>
       <c r="C69">
         <f>_xlfn.POISSON.DIST(A69,Scrobbles!$P$9,FALSE)</f>
-        <v>4.4722388993348149E-2</v>
+        <v>4.3336484403496259E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -12330,11 +13411,11 @@
       </c>
       <c r="B70">
         <f>_xlfn.NORM.DIST(A70,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.1482051887562905E-2</v>
+        <v>1.0050214363938657E-2</v>
       </c>
       <c r="C70">
         <f>_xlfn.POISSON.DIST(A70,Scrobbles!$P$9,FALSE)</f>
-        <v>4.1885328561244176E-2</v>
+        <v>4.5263932059892778E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -12343,11 +13424,11 @@
       </c>
       <c r="B71">
         <f>_xlfn.NORM.DIST(A71,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.1435638800894554E-2</v>
+        <v>1.0066423063658844E-2</v>
       </c>
       <c r="C71">
         <f>_xlfn.POISSON.DIST(A71,Scrobbles!$P$9,FALSE)</f>
-        <v>3.865971786499605E-2</v>
+        <v>4.659193006659873E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -12356,11 +13437,11 @@
       </c>
       <c r="B72">
         <f>_xlfn.NORM.DIST(A72,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.1379833943962088E-2</v>
+        <v>1.0076223582086369E-2</v>
       </c>
       <c r="C72">
         <f>_xlfn.POISSON.DIST(A72,Scrobbles!$P$9,FALSE)</f>
-        <v>3.5172762920310151E-2</v>
+        <v>4.7273763189524559E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -12369,11 +13450,11 @@
       </c>
       <c r="B73">
         <f>_xlfn.NORM.DIST(A73,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.1314776791140688E-2</v>
+        <v>1.0079597165677346E-2</v>
       </c>
       <c r="C73">
         <f>_xlfn.POISSON.DIST(A73,Scrobbles!$P$9,FALSE)</f>
-        <v>3.1549608938184856E-2</v>
+        <v>4.7290002888318632E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -12382,11 +13463,11 @@
       </c>
       <c r="B74">
         <f>_xlfn.NORM.DIST(A74,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.1240629360137764E-2</v>
+        <v>1.0076537356178103E-2</v>
       </c>
       <c r="C74">
         <f>_xlfn.POISSON.DIST(A74,Scrobbles!$P$9,FALSE)</f>
-        <v>2.7906625771030601E-2</v>
+        <v>4.6649216941322444E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -12395,11 +13476,11 @@
       </c>
       <c r="B75">
         <f>_xlfn.NORM.DIST(A75,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.1157575539746872E-2</v>
+        <v>1.0067050011226503E-2</v>
       </c>
       <c r="C75">
         <f>_xlfn.POISSON.DIST(A75,Scrobbles!$P$9,FALSE)</f>
-        <v>2.4346151088989382E-2</v>
+        <v>4.5386742309766435E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -12408,11 +13489,11 @@
       </c>
       <c r="B76">
         <f>_xlfn.NORM.DIST(A76,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.1065820330062554E-2</v>
+        <v>1.0051153285666364E-2</v>
       </c>
       <c r="C76">
         <f>_xlfn.POISSON.DIST(A76,Scrobbles!$P$9,FALSE)</f>
-        <v>2.0952914344737009E-2</v>
+        <v>4.3561698617679598E-2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -12421,11 +13502,11 @@
       </c>
       <c r="B77">
         <f>_xlfn.NORM.DIST(A77,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.0965588999549249E-2</v>
+        <v>1.0028877573658347E-2</v>
       </c>
       <c r="C77">
         <f>_xlfn.POISSON.DIST(A77,Scrobbles!$P$9,FALSE)</f>
-        <v>1.7792174063191068E-2</v>
+        <v>4.1252574430791236E-2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -12434,11 +13515,11 @@
       </c>
       <c r="B78">
         <f>_xlfn.NORM.DIST(A78,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.0857126163814413E-2</v>
+        <v>1.0000265411845755E-2</v>
       </c>
       <c r="C78">
         <f>_xlfn.POISSON.DIST(A78,Scrobbles!$P$9,FALSE)</f>
-        <v>1.4909437914665803E-2</v>
+        <v>3.8551828222870337E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -12447,11 +13528,11 @@
       </c>
       <c r="B79">
         <f>_xlfn.NORM.DIST(A79,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.0740694791356989E-2</v>
+        <v>9.9653713440070301E-3</v>
       </c>
       <c r="C79">
         <f>_xlfn.POISSON.DIST(A79,Scrobbles!$P$9,FALSE)</f>
-        <v>1.2331513711951736E-2</v>
+        <v>3.5560001198922532E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -12460,11 +13541,11 @@
       </c>
       <c r="B80">
         <f>_xlfn.NORM.DIST(A80,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.0616575141944603E-2</v>
+        <v>9.9242617477977267E-3</v>
       </c>
       <c r="C80">
         <f>_xlfn.POISSON.DIST(A80,Scrobbles!$P$9,FALSE)</f>
-        <v>1.0068566248471408E-2</v>
+        <v>3.2379838490075828E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -12473,11 +13554,11 @@
       </c>
       <c r="B81">
         <f>_xlfn.NORM.DIST(A81,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.0485063643613962E-2</v>
+        <v>9.8770146243523128E-3</v>
       </c>
       <c r="C81">
         <f>_xlfn.POISSON.DIST(A81,Scrobbles!$P$9,FALSE)</f>
-        <v>8.1168287850670491E-3</v>
+        <v>2.9110864366502263E-2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -12486,11 +13567,11 @@
       </c>
       <c r="B82">
         <f>_xlfn.NORM.DIST(A82,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.0346471714586287E-2</v>
+        <v>9.8237193516792602E-3</v>
       </c>
       <c r="C82">
         <f>_xlfn.POISSON.DIST(A82,Scrobbles!$P$9,FALSE)</f>
-        <v>6.4616323269357226E-3</v>
+        <v>2.5844767388797138E-2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -12499,11 +13580,11 @@
       </c>
       <c r="B83">
         <f>_xlfn.NORM.DIST(A83,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.0201124536642009E-2</v>
+        <v>9.7644764029406368E-3</v>
       </c>
       <c r="C83">
         <f>_xlfn.POISSON.DIST(A83,Scrobbles!$P$9,FALSE)</f>
-        <v>5.0804603722796387E-3</v>
+        <v>2.2661837589935941E-2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -12512,11 +13593,11 @@
       </c>
       <c r="B84">
         <f>_xlfn.NORM.DIST(A84,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.004935978670443E-2</v>
+        <v>9.6993970308590707E-3</v>
       </c>
       <c r="C84">
         <f>_xlfn.POISSON.DIST(A84,Scrobbles!$P$9,FALSE)</f>
-        <v>3.9457999256729687E-3</v>
+        <v>1.9628575568677385E-2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -12525,11 +13606,11 @@
       </c>
       <c r="B85">
         <f>_xlfn.NORM.DIST(A85,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>9.891526333540037E-3</v>
+        <v>9.6286029196394965E-3</v>
       </c>
       <c r="C85">
         <f>_xlfn.POISSON.DIST(A85,Scrobbles!$P$9,FALSE)</f>
-        <v>3.0276300870743533E-3</v>
+        <v>1.6796477242429806E-2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -12538,11 +13619,11 @@
       </c>
       <c r="B86">
         <f>_xlfn.NORM.DIST(A86,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>9.7279829065929115E-3</v>
+        <v>9.5522258059297285E-3</v>
       </c>
       <c r="C86">
         <f>_xlfn.POISSON.DIST(A86,Scrobbles!$P$9,FALSE)</f>
-        <v>2.2954581052328483E-3</v>
+        <v>1.4201899457013804E-2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -12551,11 +13632,11 @@
       </c>
       <c r="B87">
         <f>_xlfn.NORM.DIST(A87,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>9.559096744031912E-3</v>
+        <v>9.4704070704721525E-3</v>
       </c>
       <c r="C87">
         <f>_xlfn.POISSON.DIST(A87,Scrobbles!$P$9,FALSE)</f>
-        <v>1.7198726472425082E-3</v>
+        <v>1.1866838226348415E-2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -12564,11 +13645,11 @@
       </c>
       <c r="B88">
         <f>_xlfn.NORM.DIST(A88,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>9.38524222710258E-3</v>
+        <v>9.3832973022176039E-3</v>
       </c>
       <c r="C88">
         <f>_xlfn.POISSON.DIST(A88,Scrobbles!$P$9,FALSE)</f>
-        <v>1.2736311806301188E-3</v>
+        <v>9.8004063854584562E-3</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -12577,11 +13658,11 @@
       </c>
       <c r="B89">
         <f>_xlfn.NORM.DIST(A89,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>9.2067995078413383E-3</v>
+        <v>9.2910558367815324E-3</v>
       </c>
       <c r="C89">
         <f>_xlfn.POISSON.DIST(A89,Scrobbles!$P$9,FALSE)</f>
-        <v>9.3233132176844858E-4</v>
+        <v>8.0007803180417916E-3</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -12590,11 +13671,11 @@
       </c>
       <c r="B90">
         <f>_xlfn.NORM.DIST(A90,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>9.0241531371287424E-3</v>
+        <v>9.193850271221193E-3</v>
       </c>
       <c r="C90">
         <f>_xlfn.POISSON.DIST(A90,Scrobbles!$P$9,FALSE)</f>
-        <v>6.7473532377538257E-4</v>
+        <v>6.457392540503799E-3</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -12603,11 +13684,11 @@
       </c>
       <c r="B91">
         <f>_xlfn.NORM.DIST(A91,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>8.837690699932569E-3</v>
+        <v>9.0918559572001727E-3</v>
       </c>
       <c r="C91">
         <f>_xlfn.POISSON.DIST(A91,Scrobbles!$P$9,FALSE)</f>
-        <v>4.8282448372382502E-4</v>
+        <v>5.153172671402328E-3</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -12616,11 +13697,11 @@
       </c>
       <c r="B92">
         <f>_xlfn.NORM.DIST(A92,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>8.6478014644223757E-3</v>
+        <v>8.9852554746831098E-3</v>
       </c>
       <c r="C92">
         <f>_xlfn.POISSON.DIST(A92,Scrobbles!$P$9,FALSE)</f>
-        <v>3.4165880678322253E-4</v>
+        <v>4.0666771867543588E-3</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -12629,11 +13710,11 @@
       </c>
       <c r="B93">
         <f>_xlfn.NORM.DIST(A93,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>8.454875051426447E-3</v>
+        <v>8.8742380883680243E-3</v>
       </c>
       <c r="C93">
         <f>_xlfn.POISSON.DIST(A93,Scrobbles!$P$9,FALSE)</f>
-        <v>2.3910963249987221E-4</v>
+        <v>3.1739919506375428E-3</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -12642,11 +13723,11 @@
       </c>
       <c r="B94">
         <f>_xlfn.NORM.DIST(A94,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>8.2593001304527326E-3</v>
+        <v>8.7589991891167604E-3</v>
       </c>
       <c r="C94">
         <f>_xlfn.POISSON.DIST(A94,Scrobbles!$P$9,FALSE)</f>
-        <v>1.6552175753614264E-4</v>
+        <v>2.4503352492726777E-3</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -12655,11 +13736,11 @@
       </c>
       <c r="B95">
         <f>_xlfn.NORM.DIST(A95,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>8.0614631482096039E-3</v>
+        <v>8.6397397226847025E-3</v>
       </c>
       <c r="C95">
         <f>_xlfn.POISSON.DIST(A95,Scrobbles!$P$9,FALSE)</f>
-        <v>1.1334907621281781E-4</v>
+        <v>1.8713286771261525E-3</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -12668,11 +13749,11 @@
       </c>
       <c r="B96">
         <f>_xlfn.NORM.DIST(A96,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>7.8617470952432288E-3</v>
+        <v>8.5166656080796713E-3</v>
       </c>
       <c r="C96">
         <f>_xlfn.POISSON.DIST(A96,Scrobbles!$P$9,FALSE)</f>
-        <v>7.6795535990661305E-5</v>
+        <v>1.4139359387107862E-3</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -12681,11 +13762,11 @@
       </c>
       <c r="B97">
         <f>_xlfn.NORM.DIST(A97,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>7.6605303159591274E-3</v>
+        <v>8.3899871478963824E-3</v>
       </c>
       <c r="C97">
         <f>_xlfn.POISSON.DIST(A97,Scrobbles!$P$9,FALSE)</f>
-        <v>5.148233248661885E-5</v>
+        <v>1.0570940830618267E-3</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -12694,11 +13775,11 @@
       </c>
       <c r="B98">
         <f>_xlfn.NORM.DIST(A98,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>7.4581853669192007E-3</v>
+        <v>8.2599184329772771E-3</v>
       </c>
       <c r="C98">
         <f>_xlfn.POISSON.DIST(A98,Scrobbles!$P$9,FALSE)</f>
-        <v>3.4153312074456402E-5</v>
+        <v>7.8207773624899076E-4</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -12707,11 +13788,11 @@
       </c>
       <c r="B99">
         <f>_xlfn.NORM.DIST(A99,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>7.255077927905927E-3</v>
+        <v>8.1266767437428982E-3</v>
       </c>
       <c r="C99">
         <f>_xlfn.POISSON.DIST(A99,Scrobbles!$P$9,FALSE)</f>
-        <v>2.2423682558688743E-5</v>
+        <v>5.7264530247851759E-4</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -12720,11 +13801,11 @@
       </c>
       <c r="B100">
         <f>_xlfn.NORM.DIST(A100,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>7.0515657698257267E-3</v>
+        <v>7.9904819505156929E-3</v>
       </c>
       <c r="C100">
         <f>_xlfn.POISSON.DIST(A100,Scrobbles!$P$9,FALSE)</f>
-        <v>1.4572253091360912E-5</v>
+        <v>4.1501819831195802E-4</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -12733,11 +13814,11 @@
       </c>
       <c r="B101">
         <f>_xlfn.NORM.DIST(A101,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>6.8479977830876492E-3</v>
+        <v>7.851555915130275E-3</v>
       </c>
       <c r="C101">
         <f>_xlfn.POISSON.DIST(A101,Scrobbles!$P$9,FALSE)</f>
-        <v>9.3742677838661097E-6</v>
+        <v>2.977415603558569E-4</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -12746,11 +13827,11 @@
       </c>
       <c r="B102">
         <f>_xlfn.NORM.DIST(A102,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>6.6447130696449695E-3</v>
+        <v>7.7101218960812399E-3</v>
       </c>
       <c r="C102">
         <f>_xlfn.POISSON.DIST(A102,Scrobbles!$P$9,FALSE)</f>
-        <v>5.9701219141171323E-6</v>
+        <v>2.1146912774542819E-4</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -12759,11 +13840,11 @@
       </c>
       <c r="B103">
         <f>_xlfn.NORM.DIST(A103,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>6.4420401014298684E-3</v>
+        <v>7.5664039594069274E-3</v>
       </c>
       <c r="C103">
         <f>_xlfn.POISSON.DIST(A103,Scrobbles!$P$9,FALSE)</f>
-        <v>3.7645031988064978E-6</v>
+        <v>1.4870758270820665E-4</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -12772,11 +13853,11 @@
       </c>
       <c r="B104">
         <f>_xlfn.NORM.DIST(A104,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>6.240295947448616E-3</v>
+        <v>7.4206263974446714E-3</v>
       </c>
       <c r="C104">
         <f>_xlfn.POISSON.DIST(A104,Scrobbles!$P$9,FALSE)</f>
-        <v>2.3504625893355529E-6</v>
+        <v>1.0354769986759879E-4</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -12785,11 +13866,11 @@
       </c>
       <c r="B105">
         <f>_xlfn.NORM.DIST(A105,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>6.0397855713402908E-3</v>
+        <v>7.2730131575203787E-3</v>
       </c>
       <c r="C105">
         <f>_xlfn.POISSON.DIST(A105,Scrobbles!$P$9,FALSE)</f>
-        <v>1.4533223853344437E-6</v>
+        <v>7.140206062383308E-5</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -12798,11 +13879,11 @@
       </c>
       <c r="B106">
         <f>_xlfn.NORM.DIST(A106,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>5.8408012007395184E-3</v>
+        <v>7.1237872825536223E-3</v>
       </c>
       <c r="C106">
         <f>_xlfn.POISSON.DIST(A106,Scrobbles!$P$9,FALSE)</f>
-        <v>8.8996815753512382E-7</v>
+        <v>4.8762382865056904E-5</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -12811,11 +13892,11 @@
       </c>
       <c r="B107">
         <f>_xlfn.NORM.DIST(A107,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>5.6436217693263523E-3</v>
+        <v>6.9731703654691314E-3</v>
       </c>
       <c r="C107">
         <f>_xlfn.POISSON.DIST(A107,Scrobbles!$P$9,FALSE)</f>
-        <v>5.3979767986443561E-7</v>
+        <v>3.2983985807908462E-5</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -12824,11 +13905,11 @@
       </c>
       <c r="B108">
         <f>_xlfn.NORM.DIST(A108,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>5.4485124319975618E-3</v>
+        <v>6.8213820192075557E-3</v>
       </c>
       <c r="C108">
         <f>_xlfn.POISSON.DIST(A108,Scrobbles!$P$9,FALSE)</f>
-        <v>3.2431795490190424E-7</v>
+        <v>2.2100636602077668E-5</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -12837,11 +13918,11 @@
       </c>
       <c r="B109">
         <f>_xlfn.NORM.DIST(A109,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>5.2557241531562991E-3</v>
+        <v>6.6686393640232097E-3</v>
       </c>
       <c r="C109">
         <f>_xlfn.POISSON.DIST(A109,Scrobbles!$P$9,FALSE)</f>
-        <v>1.9303366639570821E-7</v>
+        <v>1.4669946155744235E-5</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -12850,11 +13931,11 @@
       </c>
       <c r="B110">
         <f>_xlfn.NORM.DIST(A110,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>5.0654933676941632E-3</v>
+        <v>6.5151565336449791E-3</v>
       </c>
       <c r="C110">
         <f>_xlfn.POISSON.DIST(A110,Scrobbles!$P$9,FALSE)</f>
-        <v>1.1382958396028754E-7</v>
+        <v>9.6474442650242024E-6</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -12863,11 +13944,11 @@
       </c>
       <c r="B111">
         <f>_xlfn.NORM.DIST(A111,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>4.8780417138339065E-3</v>
+        <v>6.3611442017594598E-3</v>
       </c>
       <c r="C111">
         <f>_xlfn.POISSON.DIST(A111,Scrobbles!$P$9,FALSE)</f>
-        <v>6.650809294891393E-8</v>
+        <v>6.2862738195906863E-6</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -12876,11 +13957,11 @@
       </c>
       <c r="B112">
         <f>_xlfn.NORM.DIST(A112,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>4.6935758366146857E-3</v>
+        <v>6.2068091301534355E-3</v>
       </c>
       <c r="C112">
         <f>_xlfn.POISSON.DIST(A112,Scrobbles!$P$9,FALSE)</f>
-        <v>3.850593331516471E-8</v>
+        <v>4.0588978631148456E-6</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -12889,11 +13970,11 @@
       </c>
       <c r="B113">
         <f>_xlfn.NORM.DIST(A113,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>4.5122872604372146E-3</v>
+        <v>6.0523537397269029E-3</v>
       </c>
       <c r="C113">
         <f>_xlfn.POISSON.DIST(A113,Scrobbles!$P$9,FALSE)</f>
-        <v>2.2092787742034002E-8</v>
+        <v>2.5971238359460315E-6</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -12902,11 +13983,11 @@
       </c>
       <c r="B114">
         <f>_xlfn.NORM.DIST(A114,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>4.3343523287451618E-3</v>
+        <v>5.8979757054586131E-3</v>
       </c>
       <c r="C114">
         <f>_xlfn.POISSON.DIST(A114,Scrobbles!$P$9,FALSE)</f>
-        <v>1.256256557880374E-8</v>
+        <v>1.6469565788926058E-6</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -12915,11 +13996,11 @@
       </c>
       <c r="B115">
         <f>_xlfn.NORM.DIST(A115,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>4.1599322086035111E-3</v>
+        <v>5.7438675762746189E-3</v>
       </c>
       <c r="C115">
         <f>_xlfn.POISSON.DIST(A115,Scrobbles!$P$9,FALSE)</f>
-        <v>7.0802035398151045E-9</v>
+        <v>1.0351689095047036E-6</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -12928,11 +14009,11 @@
       </c>
       <c r="B116">
         <f>_xlfn.NORM.DIST(A116,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>3.9891729576456494E-3</v>
+        <v>5.5902164206370446E-3</v>
       </c>
       <c r="C116">
         <f>_xlfn.POISSON.DIST(A116,Scrobbles!$P$9,FALSE)</f>
-        <v>3.9553665458065664E-9</v>
+        <v>6.449319350615493E-7</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -12941,11 +14022,11 @@
       </c>
       <c r="B117">
         <f>_xlfn.NORM.DIST(A117,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>3.8222056505997988E-3</v>
+        <v>5.437203498536442E-3</v>
       </c>
       <c r="C117">
         <f>_xlfn.POISSON.DIST(A117,Scrobbles!$P$9,FALSE)</f>
-        <v>2.1904570402011405E-9</v>
+        <v>3.9831215162231875E-7</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -12954,11 +14035,11 @@
       </c>
       <c r="B118">
         <f>_xlfn.NORM.DIST(A118,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>3.6591465623729354E-3</v>
+        <v>5.2850039604369946E-3</v>
       </c>
       <c r="C118">
         <f>_xlfn.POISSON.DIST(A118,Scrobbles!$P$9,FALSE)</f>
-        <v>1.2026038652084724E-9</v>
+        <v>2.4387825599751969E-7</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -12967,11 +14048,11 @@
       </c>
       <c r="B119">
         <f>_xlfn.NORM.DIST(A119,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>3.5000974044671839E-3</v>
+        <v>5.1337865735906424E-3</v>
       </c>
       <c r="C119">
         <f>_xlfn.POISSON.DIST(A119,Scrobbles!$P$9,FALSE)</f>
-        <v>6.546099135574206E-10</v>
+        <v>1.4804533697410295E-7</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -12980,11 +14061,11 @@
       </c>
       <c r="B120">
         <f>_xlfn.NORM.DIST(A120,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>3.345145611329987E-3</v>
+        <v>4.9837134760043365E-3</v>
       </c>
       <c r="C120">
         <f>_xlfn.POISSON.DIST(A120,Scrobbles!$P$9,FALSE)</f>
-        <v>3.5330225975980463E-10</v>
+        <v>8.9108727008802866E-8</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -12993,11 +14074,11 @@
       </c>
       <c r="B121">
         <f>_xlfn.NORM.DIST(A121,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>3.1943646730953797E-3</v>
+        <v>4.834939958215094E-3</v>
       </c>
       <c r="C121">
         <f>_xlfn.POISSON.DIST(A121,Scrobbles!$P$9,FALSE)</f>
-        <v>1.8907987142854784E-10</v>
+        <v>5.3183974800088078E-8</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -13006,11 +14087,11 @@
       </c>
       <c r="B122">
         <f>_xlfn.NORM.DIST(A122,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>3.0478145110591453E-3</v>
+        <v>4.6876142729006731E-3</v>
       </c>
       <c r="C122">
         <f>_xlfn.POISSON.DIST(A122,Scrobbles!$P$9,FALSE)</f>
-        <v>1.0034827163397414E-10</v>
+        <v>3.1477994841028553E-8</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -13019,11 +14100,11 @@
       </c>
       <c r="B123">
         <f>_xlfn.NORM.DIST(A123,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>2.9055418921450902E-3</v>
+        <v>4.5418774722304558E-3</v>
       </c>
       <c r="C123">
         <f>_xlfn.POISSON.DIST(A123,Scrobbles!$P$9,FALSE)</f>
-        <v>5.2816591519550664E-11</v>
+        <v>1.8476904046981175E-8</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -13032,11 +14113,11 @@
       </c>
       <c r="B124">
         <f>_xlfn.NORM.DIST(A124,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>2.7675808785625547E-3</v>
+        <v>4.3978632727419056E-3</v>
       </c>
       <c r="C124">
         <f>_xlfn.POISSON.DIST(A124,Scrobbles!$P$9,FALSE)</f>
-        <v>2.7571245460543178E-11</v>
+        <v>1.0756646258458419E-8</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -13045,11 +14126,11 @@
       </c>
       <c r="B125">
         <f>_xlfn.NORM.DIST(A125,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>2.6339533088256665E-3</v>
+        <v>4.2556979474134005E-3</v>
       </c>
       <c r="C125">
         <f>_xlfn.POISSON.DIST(A125,Scrobbles!$P$9,FALSE)</f>
-        <v>1.4275690300628979E-11</v>
+        <v>6.2112539965557871E-9</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -13058,11 +14139,11 @@
       </c>
       <c r="B126">
         <f>_xlfn.NORM.DIST(A126,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>2.5046693063017706E-3</v>
+        <v>4.1155002444947996E-3</v>
       </c>
       <c r="C126">
         <f>_xlfn.POISSON.DIST(A126,Scrobbles!$P$9,FALSE)</f>
-        <v>7.3319800911515533E-12</v>
+        <v>3.5576655464143999E-9</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -13071,11 +14152,11 @@
       </c>
       <c r="B127">
         <f>_xlfn.NORM.DIST(A127,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>2.3797278114786788E-3</v>
+        <v>3.9773813325533463E-3</v>
       </c>
       <c r="C127">
         <f>_xlfn.POISSON.DIST(A127,Scrobbles!$P$9,FALSE)</f>
-        <v>3.735571974283981E-12</v>
+        <v>2.0214482090065652E-9</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -13084,11 +14165,11 @@
       </c>
       <c r="B128">
         <f>_xlfn.NORM.DIST(A128,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>2.2591171341865648E-3</v>
+        <v>3.8414447710945943E-3</v>
       </c>
       <c r="C128">
         <f>_xlfn.POISSON.DIST(A128,Scrobbles!$P$9,FALSE)</f>
-        <v>1.8881322397252076E-12</v>
+        <v>1.13946132106603E-9</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -13097,11 +14178,11 @@
       </c>
       <c r="B129">
         <f>_xlfn.NORM.DIST(A129,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>2.1428155220789519E-3</v>
+        <v>3.7077865060267433E-3</v>
       </c>
       <c r="C129">
         <f>_xlfn.POISSON.DIST(A129,Scrobbles!$P$9,FALSE)</f>
-        <v>9.4683549708623434E-13</v>
+        <v>6.3724051602541133E-10</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -13110,11 +14191,11 @@
       </c>
       <c r="B130">
         <f>_xlfn.NORM.DIST(A130,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>2.030791741766767E-3</v>
+        <v>3.5764948891518909E-3</v>
       </c>
       <c r="C130">
         <f>_xlfn.POISSON.DIST(A130,Scrobbles!$P$9,FALSE)</f>
-        <v>4.7109707330516772E-13</v>
+        <v>3.5359077413604661E-10</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -13123,11 +14204,11 @@
       </c>
       <c r="B131">
         <f>_xlfn.NORM.DIST(A131,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.9230056691080756E-3</v>
+        <v>3.4476507207900102E-3</v>
       </c>
       <c r="C131">
         <f>_xlfn.POISSON.DIST(A131,Scrobbles!$P$9,FALSE)</f>
-        <v>2.3257688008742014E-13</v>
+        <v>1.9467883045645023E-10</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -13136,11 +14217,11 @@
       </c>
       <c r="B132">
         <f>_xlfn.NORM.DIST(A132,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.8194088852822247E-3</v>
+        <v>3.3213273145707026E-3</v>
       </c>
       <c r="C132">
         <f>_xlfn.POISSON.DIST(A132,Scrobbles!$P$9,FALSE)</f>
-        <v>1.1393811561447128E-13</v>
+        <v>1.0636111712742555E-10</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -13149,11 +14230,11 @@
       </c>
       <c r="B133">
         <f>_xlfn.NORM.DIST(A133,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.7199452754187799E-3</v>
+        <v>3.1975905833644689E-3</v>
       </c>
       <c r="C133">
         <f>_xlfn.POISSON.DIST(A133,Scrobbles!$P$9,FALSE)</f>
-        <v>5.5391558077504241E-14</v>
+        <v>5.7665904501037095E-11</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -13162,11 +14243,11 @@
       </c>
       <c r="B134">
         <f>_xlfn.NORM.DIST(A134,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.624551626707067E-3</v>
+        <v>3.076499145269215E-3</v>
       </c>
       <c r="C134">
         <f>_xlfn.POISSON.DIST(A134,Scrobbles!$P$9,FALSE)</f>
-        <v>2.6724863433710046E-14</v>
+        <v>3.1027922007948518E-11</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -13175,11 +14256,11 @@
       </c>
       <c r="B135">
         <f>_xlfn.NORM.DIST(A135,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.5331582230793943E-3</v>
+        <v>2.958104448519217E-3</v>
       </c>
       <c r="C135">
         <f>_xlfn.POISSON.DIST(A135,Scrobbles!$P$9,FALSE)</f>
-        <v>1.2797045029144581E-14</v>
+        <v>1.6569467978570701E-11</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -13188,11 +14269,11 @@
       </c>
       <c r="B136">
         <f>_xlfn.NORM.DIST(A136,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.4456894337383478E-3</v>
+        <v>2.8424509141426672E-3</v>
       </c>
       <c r="C136">
         <f>_xlfn.POISSON.DIST(A136,Scrobbles!$P$9,FALSE)</f>
-        <v>6.0820606167196986E-15</v>
+        <v>8.7823608943572714E-12</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -13201,11 +14282,11 @@
       </c>
       <c r="B137">
         <f>_xlfn.NORM.DIST(A137,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.3620642929839898E-3</v>
+        <v>2.7295760951602474E-3</v>
       </c>
       <c r="C137">
         <f>_xlfn.POISSON.DIST(A137,Scrobbles!$P$9,FALSE)</f>
-        <v>2.8692132001605858E-15</v>
+        <v>4.6204579809157085E-12</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -13214,11 +14295,11 @@
       </c>
       <c r="B138">
         <f>_xlfn.NORM.DIST(A138,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.2821970689885836E-3</v>
+        <v>2.6195108510908599E-3</v>
       </c>
       <c r="C138">
         <f>_xlfn.POISSON.DIST(A138,Scrobbles!$P$9,FALSE)</f>
-        <v>1.343599260974849E-15</v>
+        <v>2.4129794907507731E-12</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -13227,11 +14308,11 @@
       </c>
       <c r="B139">
         <f>_xlfn.NORM.DIST(A139,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.2059978193628598E-3</v>
+        <v>2.5122795365114144E-3</v>
       </c>
       <c r="C139">
         <f>_xlfn.POISSON.DIST(A139,Scrobbles!$P$9,FALSE)</f>
-        <v>6.2459000996797388E-16</v>
+        <v>1.2509518029314993E-12</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -13240,11 +14321,11 @@
       </c>
       <c r="B140">
         <f>_xlfn.NORM.DIST(A140,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.1333729315571007E-3</v>
+        <v>2.4079002024054996E-3</v>
       </c>
       <c r="C140">
         <f>_xlfn.POISSON.DIST(A140,Scrobbles!$P$9,FALSE)</f>
-        <v>2.882450060210282E-16</v>
+        <v>6.4382673208494091E-13</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -13253,11 +14334,11 @@
       </c>
       <c r="B141">
         <f>_xlfn.NORM.DIST(A141,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.064225646340816E-3</v>
+        <v>2.3063848090303521E-3</v>
       </c>
       <c r="C141">
         <f>_xlfn.POISSON.DIST(A141,Scrobbles!$P$9,FALSE)</f>
-        <v>1.3206655093191043E-16</v>
+        <v>3.2897410841047586E-13</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -13266,11 +14347,11 @@
       </c>
       <c r="B142">
         <f>_xlfn.NORM.DIST(A142,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>9.9845656280502806E-4</v>
+        <v>2.2077394490328194E-3</v>
       </c>
       <c r="C142">
         <f>_xlfn.POISSON.DIST(A142,Scrobbles!$P$9,FALSE)</f>
-        <v>6.0077332972947659E-17</v>
+        <v>1.6689418182775589E-13</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -13279,11 +14360,11 @@
       </c>
       <c r="B143">
         <f>_xlfn.NORM.DIST(A143,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>9.3596412352963873E-4</v>
+        <v>2.1119645795524876E-3</v>
       </c>
       <c r="C143">
         <f>_xlfn.POISSON.DIST(A143,Scrobbles!$P$9,FALSE)</f>
-        <v>2.7135471769730023E-17</v>
+        <v>8.4067783684903556E-14</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -13292,11 +14373,11 @@
       </c>
       <c r="B144">
         <f>_xlfn.NORM.DIST(A144,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>8.7664507875374951E-4</v>
+        <v>2.0190552620637028E-3</v>
       </c>
       <c r="C144">
         <f>_xlfn.POISSON.DIST(A144,Scrobbles!$P$9,FALSE)</f>
-        <v>1.2170120451268261E-17</v>
+        <v>4.204833151673597E-14</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -13305,11 +14386,11 @@
       </c>
       <c r="B145">
         <f>_xlfn.NORM.DIST(A145,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>8.2039492857782401E-4</v>
+        <v>1.9290014087273257E-3</v>
       </c>
       <c r="C145">
         <f>_xlfn.POISSON.DIST(A145,Scrobbles!$P$9,FALSE)</f>
-        <v>5.4200673557821894E-18</v>
+        <v>2.0884315431816124E-14</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -13318,11 +14399,11 @@
       </c>
       <c r="B146">
         <f>_xlfn.NORM.DIST(A146,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>7.6710834241217182E-4</v>
+        <v>1.8417880340476239E-3</v>
       </c>
       <c r="C146">
         <f>_xlfn.POISSON.DIST(A146,Scrobbles!$P$9,FALSE)</f>
-        <v>2.3971103991803593E-18</v>
+        <v>1.0300665063930665E-14</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -13331,11 +14412,11 @@
       </c>
       <c r="B147">
         <f>_xlfn.NORM.DIST(A147,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>7.1667955506527902E-4</v>
+        <v>1.757395510659079E-3</v>
       </c>
       <c r="C147">
         <f>_xlfn.POISSON.DIST(A147,Scrobbles!$P$9,FALSE)</f>
-        <v>1.0528484890517499E-18</v>
+        <v>5.0455065880851995E-15</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -13344,11 +14425,11 @@
       </c>
       <c r="B148">
         <f>_xlfn.NORM.DIST(A148,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>6.6900273903720516E-4</v>
+        <v>1.67579982810195E-3</v>
       </c>
       <c r="C148">
         <f>_xlfn.POISSON.DIST(A148,Scrobbles!$P$9,FALSE)</f>
-        <v>4.5926025952727209E-19</v>
+        <v>2.454479649933817E-15</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -13357,11 +14438,11 @@
       </c>
       <c r="B149">
         <f>_xlfn.NORM.DIST(A149,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>6.2397235274675019E-4</v>
+        <v>1.5969728534835775E-3</v>
       </c>
       <c r="C149">
         <f>_xlfn.POISSON.DIST(A149,Scrobbles!$P$9,FALSE)</f>
-        <v>1.9896989768502151E-19</v>
+        <v>1.1859042211062556E-15</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -13370,11 +14451,11 @@
       </c>
       <c r="B150">
         <f>_xlfn.NORM.DIST(A150,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>5.8148346457574337E-4</v>
+        <v>1.5208825929644084E-3</v>
       </c>
       <c r="C150">
         <f>_xlfn.POISSON.DIST(A150,Scrobbles!$P$9,FALSE)</f>
-        <v>8.5619267048351697E-20</v>
+        <v>5.6910894724150082E-16</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -13383,11 +14464,11 @@
       </c>
       <c r="B151">
         <f>_xlfn.NORM.DIST(A151,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>5.4143205275904475E-4</v>
+        <v>1.4474934530530139E-3</v>
       </c>
       <c r="C151">
         <f>_xlfn.POISSON.DIST(A151,Scrobbles!$P$9,FALSE)</f>
-        <v>3.6595786205163314E-20</v>
+        <v>2.7127930174615004E-16</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -13396,11 +14477,11 @@
       </c>
       <c r="B152">
         <f>_xlfn.NORM.DIST(A152,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>5.0371528128425691E-4</v>
+        <v>1.3767665007426929E-3</v>
       </c>
       <c r="C152">
         <f>_xlfn.POISSON.DIST(A152,Scrobbles!$P$9,FALSE)</f>
-        <v>1.553766190776104E-20</v>
+        <v>1.2844964661541451E-16</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -13409,11 +14490,11 @@
       </c>
       <c r="B153">
         <f>_xlfn.NORM.DIST(A153,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>4.6823175209036264E-4</v>
+        <v>1.3086597215730433E-3</v>
       </c>
       <c r="C153">
         <f>_xlfn.POISSON.DIST(A153,Scrobbles!$P$9,FALSE)</f>
-        <v>6.5532172284648186E-21</v>
+        <v>6.0417601509302257E-17</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -13422,11 +14503,11 @@
       </c>
       <c r="B154">
         <f>_xlfn.NORM.DIST(A154,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>4.3488173396933157E-4</v>
+        <v>1.2431282747529047E-3</v>
       </c>
       <c r="C154">
         <f>_xlfn.POISSON.DIST(A154,Scrobbles!$P$9,FALSE)</f>
-        <v>2.7457236271999823E-21</v>
+        <v>2.823107438945525E-17</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -13435,11 +14516,11 @@
       </c>
       <c r="B155">
         <f>_xlfn.NORM.DIST(A155,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>4.0356736867904397E-4</v>
+        <v>1.1801247445357634E-3</v>
       </c>
       <c r="C155">
         <f>_xlfn.POISSON.DIST(A155,Scrobbles!$P$9,FALSE)</f>
-        <v>1.1429078996726026E-21</v>
+        <v>1.3105195061707951E-17</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -13448,11 +14529,11 @@
       </c>
       <c r="B156">
         <f>_xlfn.NORM.DIST(A156,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>3.7419285486960829E-4</v>
+        <v>1.1195993870947985E-3</v>
       </c>
       <c r="C156">
         <f>_xlfn.POISSON.DIST(A156,Scrobbles!$P$9,FALSE)</f>
-        <v>4.7264640414267754E-22</v>
+        <v>6.0440810927612287E-18</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -13461,11 +14542,11 @@
       </c>
       <c r="B157">
         <f>_xlfn.NORM.DIST(A157,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>3.4666461050839747E-4</v>
+        <v>1.0615003722017817E-3</v>
       </c>
       <c r="C157">
         <f>_xlfn.POISSON.DIST(A157,Scrobbles!$P$9,FALSE)</f>
-        <v>1.942005718729229E-22</v>
+        <v>2.7695301561164669E-18</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -13474,11 +14555,11 @@
       </c>
       <c r="B158">
         <f>_xlfn.NORM.DIST(A158,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>3.2089141456198995E-4</v>
+        <v>1.0057740190717243E-3</v>
       </c>
       <c r="C158">
         <f>_xlfn.POISSON.DIST(A158,Scrobbles!$P$9,FALSE)</f>
-        <v>7.9281480322178327E-23</v>
+        <v>1.260924298719705E-18</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -13487,11 +14568,11 @@
       </c>
       <c r="B159">
         <f>_xlfn.NORM.DIST(A159,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>2.9678452875591695E-4</v>
+        <v>9.5236502579301783E-4</v>
       </c>
       <c r="C159">
         <f>_xlfn.POISSON.DIST(A159,Scrobbles!$P$9,FALSE)</f>
-        <v>3.2160140887527481E-23</v>
+        <v>5.7042279911011285E-19</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -13500,11 +14581,11 @@
       </c>
       <c r="B160">
         <f>_xlfn.NORM.DIST(A160,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>2.7425780028595521E-4</v>
+        <v>9.0121669182068693E-4</v>
       </c>
       <c r="C160">
         <f>_xlfn.POISSON.DIST(A160,Scrobbles!$P$9,FALSE)</f>
-        <v>1.2963035195171183E-23</v>
+        <v>2.5641728789883097E-19</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -13513,11 +14594,11 @@
       </c>
       <c r="B161">
         <f>_xlfn.NORM.DIST(A161,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>2.5322774639799036E-4</v>
+        <v>8.5227113306774415E-4</v>
       </c>
       <c r="C161">
         <f>_xlfn.POISSON.DIST(A161,Scrobbles!$P$9,FALSE)</f>
-        <v>5.1922479114460443E-24</v>
+        <v>1.1454013535226355E-19</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -13526,11 +14607,11 @@
       </c>
       <c r="B162">
         <f>_xlfn.NORM.DIST(A162,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>2.33613621787634E-4</v>
+        <v>8.0546948918638222E-4</v>
       </c>
       <c r="C162">
         <f>_xlfn.POISSON.DIST(A162,Scrobbles!$P$9,FALSE)</f>
-        <v>2.0667182863207243E-24</v>
+        <v>5.0844645449052504E-20</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -13539,11 +14620,11 @@
       </c>
       <c r="B163">
         <f>_xlfn.NORM.DIST(A163,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>2.1533746979618876E-4</v>
+        <v>7.6075212268644028E-4</v>
       </c>
       <c r="C163">
         <f>_xlfn.POISSON.DIST(A163,Scrobbles!$P$9,FALSE)</f>
-        <v>8.1752539203135929E-25</v>
+        <v>2.2429875404884468E-20</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -13552,11 +14633,11 @@
       </c>
       <c r="B164">
         <f>_xlfn.NORM.DIST(A164,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.983241583967545E-4</v>
+        <v>7.1805880959308727E-4</v>
       </c>
       <c r="C164">
         <f>_xlfn.POISSON.DIST(A164,Scrobbles!$P$9,FALSE)</f>
-        <v>3.213897934299065E-25</v>
+        <v>9.8337544683865495E-21</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -13565,11 +14646,11 @@
       </c>
       <c r="B165">
         <f>_xlfn.NORM.DIST(A165,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.825014019737068E-4</v>
+        <v>6.7732892139866423E-4</v>
       </c>
       <c r="C165">
         <f>_xlfn.POISSON.DIST(A165,Scrobbles!$P$9,FALSE)</f>
-        <v>1.2557127980997545E-25</v>
+        <v>4.2848859811374767E-21</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -13578,11 +14659,11 @@
       </c>
       <c r="B166">
         <f>_xlfn.NORM.DIST(A166,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.6779976990101682E-4</v>
+        <v>6.385015981149498E-4</v>
       </c>
       <c r="C166">
         <f>_xlfn.POISSON.DIST(A166,Scrobbles!$P$9,FALSE)</f>
-        <v>4.8763213393449589E-26</v>
+        <v>1.8556793541154859E-21</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -13591,11 +14672,11 @@
       </c>
       <c r="B167">
         <f>_xlfn.NORM.DIST(A167,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.5415268292044679E-4</v>
+        <v>6.0151591228152751E-4</v>
       </c>
       <c r="C167">
         <f>_xlfn.POISSON.DIST(A167,Scrobbles!$P$9,FALSE)</f>
-        <v>1.8821499358517287E-26</v>
+        <v>7.9877875523789045E-22</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -13604,11 +14685,11 @@
       </c>
       <c r="B168">
         <f>_xlfn.NORM.DIST(A168,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.4149639831011256E-4</v>
+        <v>5.6631102383331651E-4</v>
       </c>
       <c r="C168">
         <f>_xlfn.POISSON.DIST(A168,Scrobbles!$P$9,FALSE)</f>
-        <v>7.2209106917627115E-27</v>
+        <v>3.4176369897923381E-22</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -13617,11 +14698,11 @@
       </c>
       <c r="B169">
         <f>_xlfn.NORM.DIST(A169,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.297699848178113E-4</v>
+        <v>5.3282632577548615E-4</v>
       </c>
       <c r="C169">
         <f>_xlfn.POISSON.DIST(A169,Scrobbles!$P$9,FALSE)</f>
-        <v>2.7537299432717699E-27</v>
+        <v>1.4535064866767331E-22</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -13630,11 +14711,11 @@
       </c>
       <c r="B170">
         <f>_xlfn.NORM.DIST(A170,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.1891528831242937E-4</v>
+        <v>5.010015806568111E-4</v>
       </c>
       <c r="C170">
         <f>_xlfn.POISSON.DIST(A170,Scrobbles!$P$9,FALSE)</f>
-        <v>1.0438976255539923E-27</v>
+        <v>6.1449054721292957E-23</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -13643,11 +14724,11 @@
       </c>
       <c r="B171">
         <f>_xlfn.NORM.DIST(A171,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>1.0887688908123353E-4</v>
+        <v>4.7077704787291979E-4</v>
       </c>
       <c r="C171">
         <f>_xlfn.POISSON.DIST(A171,Scrobbles!$P$9,FALSE)</f>
-        <v>3.933843239122176E-28</v>
+        <v>2.5824743447597712E-23</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -13656,11 +14737,11 @@
       </c>
       <c r="B172">
         <f>_xlfn.NORM.DIST(A172,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>9.9602051671451893E-5</v>
+        <v>4.4209360186876225E-4</v>
       </c>
       <c r="C172">
         <f>_xlfn.POISSON.DIST(A172,Scrobbles!$P$9,FALSE)</f>
-        <v>1.4737165906192408E-28</v>
+        <v>1.0789333273945972E-23</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -13669,11 +14750,11 @@
       </c>
       <c r="B173">
         <f>_xlfn.NORM.DIST(A173,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>9.104066814179548E-5</v>
+        <v>4.1489284134493186E-4</v>
       </c>
       <c r="C173">
         <f>_xlfn.POISSON.DIST(A173,Scrobbles!$P$9,FALSE)</f>
-        <v>5.488626861978226E-29</v>
+        <v>4.4813205667851351E-24</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -13682,11 +14763,11 @@
       </c>
       <c r="B174">
         <f>_xlfn.NORM.DIST(A174,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>8.3145195553994633E-5</v>
+        <v>3.8911718960514123E-4</v>
       </c>
       <c r="C174">
         <f>_xlfn.POISSON.DIST(A174,Scrobbles!$P$9,FALSE)</f>
-        <v>2.0322685872897369E-29</v>
+        <v>1.8504829112986874E-24</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -13695,11 +14776,11 @@
       </c>
       <c r="B175">
         <f>_xlfn.NORM.DIST(A175,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>7.5870588496491586E-5</v>
+        <v>3.6470998621216495E-4</v>
       </c>
       <c r="C175">
         <f>_xlfn.POISSON.DIST(A175,Scrobbles!$P$9,FALSE)</f>
-        <v>7.4813650362880268E-30</v>
+        <v>7.5970763255346716E-25</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -13708,11 +14789,11 @@
       </c>
       <c r="B176">
         <f>_xlfn.NORM.DIST(A176,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>6.9174227392644196E-5</v>
+        <v>3.4161557014694791E-4</v>
       </c>
       <c r="C176">
         <f>_xlfn.POISSON.DIST(A176,Scrobbles!$P$9,FALSE)</f>
-        <v>2.7382773989028024E-30</v>
+        <v>3.101021342859071E-25</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -13721,11 +14802,11 @@
       </c>
       <c r="B177">
         <f>_xlfn.NORM.DIST(A177,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>6.3015843304582109E-5</v>
+        <v>3.1977935469027819E-4</v>
       </c>
       <c r="C177">
         <f>_xlfn.POISSON.DIST(A177,Scrobbles!$P$9,FALSE)</f>
-        <v>9.9651820634582054E-31</v>
+        <v>1.2585608571993921E-25</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -13734,11 +14815,11 @@
       </c>
       <c r="B178">
         <f>_xlfn.NORM.DIST(A178,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>5.7357439901647491E-5</v>
+        <v>2.9914789426854435E-4</v>
       </c>
       <c r="C178">
         <f>_xlfn.POISSON.DIST(A178,Scrobbles!$P$9,FALSE)</f>
-        <v>3.6059393206453344E-31</v>
+        <v>5.0788930379224173E-26</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -13747,11 +14828,11 @@
       </c>
       <c r="B179">
         <f>_xlfn.NORM.DIST(A179,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>5.2163213219535779E-5</v>
+        <v>2.7966894352459874E-4</v>
       </c>
       <c r="C179">
         <f>_xlfn.POISSON.DIST(A179,Scrobbles!$P$9,FALSE)</f>
-        <v>1.2974510815837159E-31</v>
+        <v>2.03799593860123E-26</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -13760,11 +14841,11 @@
       </c>
       <c r="B180">
         <f>_xlfn.NORM.DIST(A180,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>4.7399469793190377E-5</v>
+        <v>2.6129150889176258E-4</v>
       </c>
       <c r="C180">
         <f>_xlfn.POISSON.DIST(A180,Scrobbles!$P$9,FALSE)</f>
-        <v>4.642125041841495E-32</v>
+        <v>8.1318774639723315E-27</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -13773,11 +14854,11 @@
       </c>
       <c r="B181">
         <f>_xlfn.NORM.DIST(A181,Scrobbles!$P$9,Scrobbles!$P$8,FALSE)</f>
-        <v>4.3034543703533606E-5</v>
+        <v>2.4396589296354063E-4</v>
       </c>
       <c r="C181">
         <f>_xlfn.POISSON.DIST(A181,Scrobbles!$P$9,FALSE)</f>
-        <v>1.6516181548802176E-32</v>
+        <v>3.2266013319372695E-27</v>
       </c>
     </row>
   </sheetData>
@@ -17250,7 +18331,7 @@
       </c>
       <c r="I53">
         <f>IF(Scrobbles!$B53=I$1,Scrobbles!$D53,0)</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K53">
         <f>IF(AND(Scrobbles!$D53&gt;=Calc!J$1+1,Scrobbles!$D53&lt;=Calc!K$1,ISBLANK(Scrobbles!$D53)=FALSE),1,0)</f>
@@ -17262,7 +18343,7 @@
       </c>
       <c r="M53">
         <f>IF(AND(Scrobbles!$D53&gt;=Calc!L$1+1,Scrobbles!$D53&lt;=Calc!M$1,ISBLANK(Scrobbles!$D53)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53">
         <f>IF(AND(Scrobbles!$D53&gt;=Calc!M$1+1,Scrobbles!$D53&lt;=Calc!N$1,ISBLANK(Scrobbles!$D53)=FALSE),1,0)</f>
@@ -17286,13 +18367,13 @@
       </c>
       <c r="T53">
         <f>IF(Scrobbles!D53&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C54">
         <f>IF(Scrobbles!$B54=C$1,Scrobbles!$D54,0)</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D54">
         <f>IF(Scrobbles!$B54=D$1,Scrobbles!$D54,0)</f>
@@ -17328,7 +18409,7 @@
       </c>
       <c r="M54">
         <f>IF(AND(Scrobbles!$D54&gt;=Calc!L$1+1,Scrobbles!$D54&lt;=Calc!M$1,ISBLANK(Scrobbles!$D54)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54">
         <f>IF(AND(Scrobbles!$D54&gt;=Calc!M$1+1,Scrobbles!$D54&lt;=Calc!N$1,ISBLANK(Scrobbles!$D54)=FALSE),1,0)</f>
@@ -17352,7 +18433,7 @@
       </c>
       <c r="T54">
         <f>IF(Scrobbles!D54&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="3:20" x14ac:dyDescent="0.3">
@@ -17362,7 +18443,7 @@
       </c>
       <c r="D55">
         <f>IF(Scrobbles!$B55=D$1,Scrobbles!$D55,0)</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E55">
         <f>IF(Scrobbles!$B55=E$1,Scrobbles!$D55,0)</f>
@@ -17394,7 +18475,7 @@
       </c>
       <c r="M55">
         <f>IF(AND(Scrobbles!$D55&gt;=Calc!L$1+1,Scrobbles!$D55&lt;=Calc!M$1,ISBLANK(Scrobbles!$D55)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55">
         <f>IF(AND(Scrobbles!$D55&gt;=Calc!M$1+1,Scrobbles!$D55&lt;=Calc!N$1,ISBLANK(Scrobbles!$D55)=FALSE),1,0)</f>
@@ -17418,7 +18499,7 @@
       </c>
       <c r="T55">
         <f>IF(Scrobbles!D55&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="3:20" x14ac:dyDescent="0.3">
@@ -17432,7 +18513,7 @@
       </c>
       <c r="E56">
         <f>IF(Scrobbles!$B56=E$1,Scrobbles!$D56,0)</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F56">
         <f>IF(Scrobbles!$B56=F$1,Scrobbles!$D56,0)</f>
@@ -17464,7 +18545,7 @@
       </c>
       <c r="N56">
         <f>IF(AND(Scrobbles!$D56&gt;=Calc!M$1+1,Scrobbles!$D56&lt;=Calc!N$1,ISBLANK(Scrobbles!$D56)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56">
         <f>IF(AND(Scrobbles!$D56&gt;=Calc!N$1+1,Scrobbles!$D56&lt;=Calc!O$1,ISBLANK(Scrobbles!$D56)=FALSE),1,0)</f>
@@ -17484,7 +18565,7 @@
       </c>
       <c r="T56">
         <f>IF(Scrobbles!D56&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="3:20" x14ac:dyDescent="0.3">
@@ -17502,7 +18583,7 @@
       </c>
       <c r="F57">
         <f>IF(Scrobbles!$B57=F$1,Scrobbles!$D57,0)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G57">
         <f>IF(Scrobbles!$B57=G$1,Scrobbles!$D57,0)</f>
@@ -17522,7 +18603,7 @@
       </c>
       <c r="L57">
         <f>IF(AND(Scrobbles!$D57&gt;=Calc!K$1+1,Scrobbles!$D57&lt;=Calc!L$1,ISBLANK(Scrobbles!$D57)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57">
         <f>IF(AND(Scrobbles!$D57&gt;=Calc!L$1+1,Scrobbles!$D57&lt;=Calc!M$1,ISBLANK(Scrobbles!$D57)=FALSE),1,0)</f>
@@ -17550,7 +18631,7 @@
       </c>
       <c r="T57">
         <f>IF(Scrobbles!D57&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="3:20" x14ac:dyDescent="0.3">
@@ -17572,7 +18653,7 @@
       </c>
       <c r="G58">
         <f>IF(Scrobbles!$B58=G$1,Scrobbles!$D58,0)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H58">
         <f>IF(Scrobbles!$B58=H$1,Scrobbles!$D58,0)</f>
@@ -17588,7 +18669,7 @@
       </c>
       <c r="L58">
         <f>IF(AND(Scrobbles!$D58&gt;=Calc!K$1+1,Scrobbles!$D58&lt;=Calc!L$1,ISBLANK(Scrobbles!$D58)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58">
         <f>IF(AND(Scrobbles!$D58&gt;=Calc!L$1+1,Scrobbles!$D58&lt;=Calc!M$1,ISBLANK(Scrobbles!$D58)=FALSE),1,0)</f>
@@ -17616,7 +18697,7 @@
       </c>
       <c r="T58">
         <f>IF(Scrobbles!D58&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="3:20" x14ac:dyDescent="0.3">
@@ -17642,7 +18723,7 @@
       </c>
       <c r="H59">
         <f>IF(Scrobbles!$B59=H$1,Scrobbles!$D59,0)</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I59">
         <f>IF(Scrobbles!$B59=I$1,Scrobbles!$D59,0)</f>
@@ -17662,7 +18743,7 @@
       </c>
       <c r="N59">
         <f>IF(AND(Scrobbles!$D59&gt;=Calc!M$1+1,Scrobbles!$D59&lt;=Calc!N$1,ISBLANK(Scrobbles!$D59)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59">
         <f>IF(AND(Scrobbles!$D59&gt;=Calc!N$1+1,Scrobbles!$D59&lt;=Calc!O$1,ISBLANK(Scrobbles!$D59)=FALSE),1,0)</f>
@@ -17682,7 +18763,7 @@
       </c>
       <c r="T59">
         <f>IF(Scrobbles!D59&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="3:20" x14ac:dyDescent="0.3">
@@ -17712,7 +18793,7 @@
       </c>
       <c r="I60">
         <f>IF(Scrobbles!$B60=I$1,Scrobbles!$D60,0)</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="K60">
         <f>IF(AND(Scrobbles!$D60&gt;=Calc!J$1+1,Scrobbles!$D60&lt;=Calc!K$1,ISBLANK(Scrobbles!$D60)=FALSE),1,0)</f>
@@ -17732,7 +18813,7 @@
       </c>
       <c r="O60">
         <f>IF(AND(Scrobbles!$D60&gt;=Calc!N$1+1,Scrobbles!$D60&lt;=Calc!O$1,ISBLANK(Scrobbles!$D60)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60">
         <f>IF(AND(Scrobbles!$D60&gt;=Calc!O$1+1,Scrobbles!$D60&lt;=Calc!P$1,ISBLANK(Scrobbles!$D60)=FALSE),1,0)</f>
@@ -17748,13 +18829,13 @@
       </c>
       <c r="T60">
         <f>IF(Scrobbles!D60&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C61">
         <f>IF(Scrobbles!$B61=C$1,Scrobbles!$D61,0)</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D61">
         <f>IF(Scrobbles!$B61=D$1,Scrobbles!$D61,0)</f>
@@ -17794,7 +18875,7 @@
       </c>
       <c r="N61">
         <f>IF(AND(Scrobbles!$D61&gt;=Calc!M$1+1,Scrobbles!$D61&lt;=Calc!N$1,ISBLANK(Scrobbles!$D61)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61">
         <f>IF(AND(Scrobbles!$D61&gt;=Calc!N$1+1,Scrobbles!$D61&lt;=Calc!O$1,ISBLANK(Scrobbles!$D61)=FALSE),1,0)</f>
@@ -17814,7 +18895,7 @@
       </c>
       <c r="T61">
         <f>IF(Scrobbles!D61&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="3:20" x14ac:dyDescent="0.3">
@@ -17824,7 +18905,7 @@
       </c>
       <c r="D62">
         <f>IF(Scrobbles!$B62=D$1,Scrobbles!$D62,0)</f>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E62">
         <f>IF(Scrobbles!$B62=E$1,Scrobbles!$D62,0)</f>
@@ -17864,7 +18945,7 @@
       </c>
       <c r="O62">
         <f>IF(AND(Scrobbles!$D62&gt;=Calc!N$1+1,Scrobbles!$D62&lt;=Calc!O$1,ISBLANK(Scrobbles!$D62)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62">
         <f>IF(AND(Scrobbles!$D62&gt;=Calc!O$1+1,Scrobbles!$D62&lt;=Calc!P$1,ISBLANK(Scrobbles!$D62)=FALSE),1,0)</f>
@@ -17880,7 +18961,7 @@
       </c>
       <c r="T62">
         <f>IF(Scrobbles!D62&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="3:20" x14ac:dyDescent="0.3">
@@ -17894,7 +18975,7 @@
       </c>
       <c r="E63">
         <f>IF(Scrobbles!$B63=E$1,Scrobbles!$D63,0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F63">
         <f>IF(Scrobbles!$B63=F$1,Scrobbles!$D63,0)</f>
@@ -17918,7 +18999,7 @@
       </c>
       <c r="L63">
         <f>IF(AND(Scrobbles!$D63&gt;=Calc!K$1+1,Scrobbles!$D63&lt;=Calc!L$1,ISBLANK(Scrobbles!$D63)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <f>IF(AND(Scrobbles!$D63&gt;=Calc!L$1+1,Scrobbles!$D63&lt;=Calc!M$1,ISBLANK(Scrobbles!$D63)=FALSE),1,0)</f>
@@ -17946,7 +19027,7 @@
       </c>
       <c r="T63">
         <f>IF(Scrobbles!D63&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="3:20" x14ac:dyDescent="0.3">
@@ -17964,7 +19045,7 @@
       </c>
       <c r="F64">
         <f>IF(Scrobbles!$B64=F$1,Scrobbles!$D64,0)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G64">
         <f>IF(Scrobbles!$B64=G$1,Scrobbles!$D64,0)</f>
@@ -17984,7 +19065,7 @@
       </c>
       <c r="L64">
         <f>IF(AND(Scrobbles!$D64&gt;=Calc!K$1+1,Scrobbles!$D64&lt;=Calc!L$1,ISBLANK(Scrobbles!$D64)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64">
         <f>IF(AND(Scrobbles!$D64&gt;=Calc!L$1+1,Scrobbles!$D64&lt;=Calc!M$1,ISBLANK(Scrobbles!$D64)=FALSE),1,0)</f>
@@ -18012,7 +19093,7 @@
       </c>
       <c r="T64">
         <f>IF(Scrobbles!D64&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="3:20" x14ac:dyDescent="0.3">
@@ -18046,7 +19127,7 @@
       </c>
       <c r="K65">
         <f>IF(AND(Scrobbles!$D65&gt;=Calc!J$1+1,Scrobbles!$D65&lt;=Calc!K$1,ISBLANK(Scrobbles!$D65)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65">
         <f>IF(AND(Scrobbles!$D65&gt;=Calc!K$1+1,Scrobbles!$D65&lt;=Calc!L$1,ISBLANK(Scrobbles!$D65)=FALSE),1,0)</f>
@@ -18078,7 +19159,7 @@
       </c>
       <c r="T65">
         <f>IF(Scrobbles!D65&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="3:20" x14ac:dyDescent="0.3">
@@ -18136,7 +19217,7 @@
       </c>
       <c r="Q66">
         <f>IF(AND(Scrobbles!$D66&gt;=Calc!P$1+1,Scrobbles!$D66&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D66)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66">
         <f>IF(AND(Scrobbles!$D66&gt;=Calc!Q$1+1,Scrobbles!$D66&lt;=Calc!R$1,ISBLANK(Scrobbles!$D66)=FALSE),1,0)</f>
@@ -18144,7 +19225,7 @@
       </c>
       <c r="T66">
         <f>IF(Scrobbles!D66&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="3:20" x14ac:dyDescent="0.3">
@@ -18206,11 +19287,11 @@
       </c>
       <c r="R67">
         <f>IF(AND(Scrobbles!$D67&gt;=Calc!Q$1+1,Scrobbles!$D67&lt;=Calc!R$1,ISBLANK(Scrobbles!$D67)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67">
         <f>IF(Scrobbles!D67&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="3:20" x14ac:dyDescent="0.3">
@@ -18272,11 +19353,11 @@
       </c>
       <c r="R68">
         <f>IF(AND(Scrobbles!$D68&gt;=Calc!Q$1+1,Scrobbles!$D68&lt;=Calc!R$1,ISBLANK(Scrobbles!$D68)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T68">
         <f>IF(Scrobbles!D68&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="3:20" x14ac:dyDescent="0.3">
@@ -18338,11 +19419,11 @@
       </c>
       <c r="R69">
         <f>IF(AND(Scrobbles!$D69&gt;=Calc!Q$1+1,Scrobbles!$D69&lt;=Calc!R$1,ISBLANK(Scrobbles!$D69)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69">
         <f>IF(Scrobbles!D69&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="3:20" x14ac:dyDescent="0.3">
@@ -18400,7 +19481,7 @@
       </c>
       <c r="Q70">
         <f>IF(AND(Scrobbles!$D70&gt;=Calc!P$1+1,Scrobbles!$D70&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D70)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70">
         <f>IF(AND(Scrobbles!$D70&gt;=Calc!Q$1+1,Scrobbles!$D70&lt;=Calc!R$1,ISBLANK(Scrobbles!$D70)=FALSE),1,0)</f>
@@ -18408,7 +19489,7 @@
       </c>
       <c r="T70">
         <f>IF(Scrobbles!D70&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="3:20" x14ac:dyDescent="0.3">
@@ -18462,7 +19543,7 @@
       </c>
       <c r="P71">
         <f>IF(AND(Scrobbles!$D71&gt;=Calc!O$1+1,Scrobbles!$D71&lt;=Calc!P$1,ISBLANK(Scrobbles!$D71)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
         <f>IF(AND(Scrobbles!$D71&gt;=Calc!P$1+1,Scrobbles!$D71&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D71)=FALSE),1,0)</f>
@@ -18474,7 +19555,7 @@
       </c>
       <c r="T71">
         <f>IF(Scrobbles!D71&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="3:20" x14ac:dyDescent="0.3">
@@ -18540,7 +19621,7 @@
       </c>
       <c r="T72">
         <f>IF(Scrobbles!D72&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="3:20" x14ac:dyDescent="0.3">
@@ -18606,7 +19687,7 @@
       </c>
       <c r="T73">
         <f>IF(Scrobbles!D73&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="3:20" x14ac:dyDescent="0.3">
@@ -18648,7 +19729,7 @@
       </c>
       <c r="M74">
         <f>IF(AND(Scrobbles!$D74&gt;=Calc!L$1+1,Scrobbles!$D74&lt;=Calc!M$1,ISBLANK(Scrobbles!$D74)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74">
         <f>IF(AND(Scrobbles!$D74&gt;=Calc!M$1+1,Scrobbles!$D74&lt;=Calc!N$1,ISBLANK(Scrobbles!$D74)=FALSE),1,0)</f>
@@ -18672,7 +19753,7 @@
       </c>
       <c r="T74">
         <f>IF(Scrobbles!D74&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="3:20" x14ac:dyDescent="0.3">
@@ -18718,7 +19799,7 @@
       </c>
       <c r="N75">
         <f>IF(AND(Scrobbles!$D75&gt;=Calc!M$1+1,Scrobbles!$D75&lt;=Calc!N$1,ISBLANK(Scrobbles!$D75)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75">
         <f>IF(AND(Scrobbles!$D75&gt;=Calc!N$1+1,Scrobbles!$D75&lt;=Calc!O$1,ISBLANK(Scrobbles!$D75)=FALSE),1,0)</f>
@@ -18738,7 +19819,7 @@
       </c>
       <c r="T75">
         <f>IF(Scrobbles!D75&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="3:20" x14ac:dyDescent="0.3">
@@ -18796,7 +19877,7 @@
       </c>
       <c r="Q76">
         <f>IF(AND(Scrobbles!$D76&gt;=Calc!P$1+1,Scrobbles!$D76&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D76)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76">
         <f>IF(AND(Scrobbles!$D76&gt;=Calc!Q$1+1,Scrobbles!$D76&lt;=Calc!R$1,ISBLANK(Scrobbles!$D76)=FALSE),1,0)</f>
@@ -18804,7 +19885,7 @@
       </c>
       <c r="T76">
         <f>IF(Scrobbles!D76&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="3:20" x14ac:dyDescent="0.3">
@@ -18858,7 +19939,7 @@
       </c>
       <c r="P77">
         <f>IF(AND(Scrobbles!$D77&gt;=Calc!O$1+1,Scrobbles!$D77&lt;=Calc!P$1,ISBLANK(Scrobbles!$D77)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
         <f>IF(AND(Scrobbles!$D77&gt;=Calc!P$1+1,Scrobbles!$D77&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D77)=FALSE),1,0)</f>
@@ -18870,7 +19951,7 @@
       </c>
       <c r="T77">
         <f>IF(Scrobbles!D77&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="3:20" x14ac:dyDescent="0.3">
@@ -18924,7 +20005,7 @@
       </c>
       <c r="P78">
         <f>IF(AND(Scrobbles!$D78&gt;=Calc!O$1+1,Scrobbles!$D78&lt;=Calc!P$1,ISBLANK(Scrobbles!$D78)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
         <f>IF(AND(Scrobbles!$D78&gt;=Calc!P$1+1,Scrobbles!$D78&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D78)=FALSE),1,0)</f>
@@ -18936,7 +20017,7 @@
       </c>
       <c r="T78">
         <f>IF(Scrobbles!D78&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="3:20" x14ac:dyDescent="0.3">
@@ -18982,7 +20063,7 @@
       </c>
       <c r="N79">
         <f>IF(AND(Scrobbles!$D79&gt;=Calc!M$1+1,Scrobbles!$D79&lt;=Calc!N$1,ISBLANK(Scrobbles!$D79)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79">
         <f>IF(AND(Scrobbles!$D79&gt;=Calc!N$1+1,Scrobbles!$D79&lt;=Calc!O$1,ISBLANK(Scrobbles!$D79)=FALSE),1,0)</f>
@@ -19002,7 +20083,7 @@
       </c>
       <c r="T79">
         <f>IF(Scrobbles!D79&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="3:20" x14ac:dyDescent="0.3">
@@ -19044,7 +20125,7 @@
       </c>
       <c r="M80">
         <f>IF(AND(Scrobbles!$D80&gt;=Calc!L$1+1,Scrobbles!$D80&lt;=Calc!M$1,ISBLANK(Scrobbles!$D80)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80">
         <f>IF(AND(Scrobbles!$D80&gt;=Calc!M$1+1,Scrobbles!$D80&lt;=Calc!N$1,ISBLANK(Scrobbles!$D80)=FALSE),1,0)</f>
@@ -19068,7 +20149,7 @@
       </c>
       <c r="T80">
         <f>IF(Scrobbles!D80&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="3:20" x14ac:dyDescent="0.3">
@@ -19110,7 +20191,7 @@
       </c>
       <c r="M81">
         <f>IF(AND(Scrobbles!$D81&gt;=Calc!L$1+1,Scrobbles!$D81&lt;=Calc!M$1,ISBLANK(Scrobbles!$D81)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81">
         <f>IF(AND(Scrobbles!$D81&gt;=Calc!M$1+1,Scrobbles!$D81&lt;=Calc!N$1,ISBLANK(Scrobbles!$D81)=FALSE),1,0)</f>
@@ -19134,7 +20215,7 @@
       </c>
       <c r="T81">
         <f>IF(Scrobbles!D81&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="3:20" x14ac:dyDescent="0.3">
@@ -19188,7 +20269,7 @@
       </c>
       <c r="P82">
         <f>IF(AND(Scrobbles!$D82&gt;=Calc!O$1+1,Scrobbles!$D82&lt;=Calc!P$1,ISBLANK(Scrobbles!$D82)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
         <f>IF(AND(Scrobbles!$D82&gt;=Calc!P$1+1,Scrobbles!$D82&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D82)=FALSE),1,0)</f>
@@ -19200,7 +20281,7 @@
       </c>
       <c r="T82">
         <f>IF(Scrobbles!D82&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="3:20" x14ac:dyDescent="0.3">
@@ -19250,7 +20331,7 @@
       </c>
       <c r="O83">
         <f>IF(AND(Scrobbles!$D83&gt;=Calc!N$1+1,Scrobbles!$D83&lt;=Calc!O$1,ISBLANK(Scrobbles!$D83)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83">
         <f>IF(AND(Scrobbles!$D83&gt;=Calc!O$1+1,Scrobbles!$D83&lt;=Calc!P$1,ISBLANK(Scrobbles!$D83)=FALSE),1,0)</f>
@@ -19266,7 +20347,7 @@
       </c>
       <c r="T83">
         <f>IF(Scrobbles!D83&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="3:20" x14ac:dyDescent="0.3">
